--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E07F2BC-BE6D-4558-A9A6-4B82E1624711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4BDD8D-4467-45FB-AD7E-CCF69A2D1EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>https://etml.icescrum.com/p/PLOTTHATLI/#/taskBoard/1289</t>
+  </si>
+  <si>
+    <t>Écouter les instructions, mettre en place le travail et se rappeler du travail effectué</t>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -671,7 +674,7 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(C5:C521)</f>
-        <v>0.13194444444444445</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -809,14 +812,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="str">
+      <c r="A11" s="14">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="B11" s="9">
+        <v>45541</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6580,6 +6591,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6802,27 +6833,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6839,23 +6869,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4BDD8D-4467-45FB-AD7E-CCF69A2D1EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5636FF9-4BF0-46B7-B66A-A439673EE11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -129,6 +129,17 @@
   </si>
   <si>
     <t>Écouter les instructions, mettre en place le travail et se rappeler du travail effectué</t>
+  </si>
+  <si>
+    <t>Créer une fenêtre d'accueil expliquant brièvement l'application.</t>
+  </si>
+  <si>
+    <t>(re)Prise en main de Forms, je n'en ai fait que durant une journée de télétravail</t>
+  </si>
+  <si>
+    <t>Lire un CSV et afficher un bouton pour chaque pays dans le CSV. 
+M'a pris ~1h puis les boutons étaient mal positionnés donc j'ai dû définir leurs largeur selon leurs taille
+J'ai aussi dû supprimer des jeux de donnée vide</t>
   </si>
 </sst>
 </file>
@@ -610,7 +621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -674,7 +685,7 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(C5:C521)</f>
-        <v>0.14583333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -831,25 +842,43 @@
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="str">
+      <c r="A12" s="14">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="str">
+        <v>36</v>
+      </c>
+      <c r="B12" s="9">
+        <v>45541</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="B13" s="9">
+        <v>45541</v>
+      </c>
+      <c r="C13" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5636FF9-4BF0-46B7-B66A-A439673EE11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B18177-243B-4D2C-B7EA-DCDD022389EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -140,6 +140,21 @@
     <t>Lire un CSV et afficher un bouton pour chaque pays dans le CSV. 
 M'a pris ~1h puis les boutons étaient mal positionnés donc j'ai dû définir leurs largeur selon leurs taille
 J'ai aussi dû supprimer des jeux de donnée vide</t>
+  </si>
+  <si>
+    <t>Daily Scrum puis information sur les conventions de nommage des commits.</t>
+  </si>
+  <si>
+    <t>Créer une seconde fenêtre lorsque l'on clique sur un bouton</t>
+  </si>
+  <si>
+    <t>Afficher le graphique du pays</t>
+  </si>
+  <si>
+    <t>https://scottplot.net/cookbook/5.0/Callout/CalloutQuickstart/</t>
+  </si>
+  <si>
+    <t>J'essaye d'afficher les informations d'un point lorsque la souris passe dessus, je n'ai pas trouvé comment faire cela dans la documentation.</t>
   </si>
 </sst>
 </file>
@@ -304,6 +319,50 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -352,50 +411,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -410,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -418,14 +433,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,8 +635,8 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -685,7 +700,7 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(C5:C521)</f>
-        <v>0.25</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -833,7 +848,7 @@
       <c r="C11" s="10">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -852,7 +867,7 @@
       <c r="C12" s="10">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -873,7 +888,7 @@
       <c r="C13" s="10">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="22" t="s">
@@ -882,48 +897,82 @@
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="str">
+      <c r="A14" s="14">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="B14" s="9">
+        <v>45548</v>
+      </c>
+      <c r="C14" s="10">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="str">
+      <c r="A15" s="14">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="B15" s="9">
+        <v>45548</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="str">
+      <c r="A16" s="14">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="B16" s="9">
+        <v>45548</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="str">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="B17" s="9">
+        <v>45548</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="str">
@@ -6585,19 +6634,19 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6610,36 +6659,17 @@
     <hyperlink ref="F6" r:id="rId1" xr:uid="{B508F36C-320A-4093-9063-F4DA4F4B5FF1}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{138C51BA-3627-4EA1-B9D2-CD1DD6E29056}"/>
     <hyperlink ref="F10" r:id="rId3" location="/taskBoard/1289" xr:uid="{C8F3CEBB-A200-49D3-8D35-4F56258BCD3C}"/>
+    <hyperlink ref="F17" r:id="rId4" xr:uid="{F053DE6A-CBAB-4534-8894-DA5EC5F7F779}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6862,26 +6892,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6898,4 +6929,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B18177-243B-4D2C-B7EA-DCDD022389EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B6C57-F8D8-4B46-ABB1-8261E6659D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -155,6 +155,36 @@
   </si>
   <si>
     <t>J'essaye d'afficher les informations d'un point lorsque la souris passe dessus, je n'ai pas trouvé comment faire cela dans la documentation.</t>
+  </si>
+  <si>
+    <t>Daily Scrum et écouter les informations, préparer les outils pour travailler</t>
+  </si>
+  <si>
+    <t>Je refais une maquette sur papier</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/14058412/passing-parameter-to-an-event-handler/14058441#14058441</t>
+  </si>
+  <si>
+    <t>Je change l'interface de mon application pour enlever tous les boutons et mettre une liste à la place, je n'arrivais plus à rouvrir une nouvelle fenêtre sans les boutons.</t>
+  </si>
+  <si>
+    <t>Imprévu</t>
+  </si>
+  <si>
+    <t>Connexion internet ne fonctionne plus</t>
+  </si>
+  <si>
+    <t>Je cherche une API permettant de convertir mes données (qui sont dans la devise du pays en euro)</t>
+  </si>
+  <si>
+    <t>https://currency.getgeoapi.com/documentation/#currency-convert</t>
+  </si>
+  <si>
+    <t>J'arrive à lire des éléments d'une API</t>
+  </si>
+  <si>
+    <t>J'essaie de convertir une devise en une autre depuis l'api</t>
   </si>
 </sst>
 </file>
@@ -317,7 +347,109 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -425,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -433,14 +565,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="22">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,8 +767,8 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -646,12 +778,13 @@
     <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="72.125" customWidth="1"/>
-    <col min="10" max="10" width="7.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="91.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
@@ -678,6 +811,9 @@
       <c r="F2" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -700,7 +836,7 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(C5:C521)</f>
-        <v>0.36458333333333331</v>
+        <v>0.49652777777777773</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -975,80 +1111,140 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="str">
+      <c r="A18" s="14">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B18" s="9">
+        <v>45562</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="str">
+      <c r="A19" s="14">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B19" s="9">
+        <v>45562</v>
+      </c>
+      <c r="C19" s="10">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="str">
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B20" s="9">
+        <v>45562</v>
+      </c>
+      <c r="C20" s="10">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="str">
+      <c r="A21" s="14">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="9">
+        <v>45562</v>
+      </c>
+      <c r="C21" s="10">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="str">
+      <c r="A22" s="14">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B22" s="9">
+        <v>45562</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="str">
+      <c r="A23" s="14">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B23" s="9">
+        <v>45562</v>
+      </c>
+      <c r="C23" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="str">
+      <c r="A24" s="14">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B24" s="9">
+        <v>45562</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6634,42 +6830,70 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D531" xr:uid="{286A9366-4079-8F4A-9AB6-501A4911E2F7}">
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$D$21="Imprévu"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D20 D22:D531" xr:uid="{286A9366-4079-8F4A-9AB6-501A4911E2F7}">
       <formula1>$I$2:$N$2</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D21" xr:uid="{D1921438-8888-4759-B714-95B9313172E3}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{B508F36C-320A-4093-9063-F4DA4F4B5FF1}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{138C51BA-3627-4EA1-B9D2-CD1DD6E29056}"/>
     <hyperlink ref="F10" r:id="rId3" location="/taskBoard/1289" xr:uid="{C8F3CEBB-A200-49D3-8D35-4F56258BCD3C}"/>
     <hyperlink ref="F17" r:id="rId4" xr:uid="{F053DE6A-CBAB-4534-8894-DA5EC5F7F779}"/>
+    <hyperlink ref="F20" r:id="rId5" location="14058441" xr:uid="{43179A56-F5C8-4E66-9711-A6B301391286}"/>
+    <hyperlink ref="F22" r:id="rId6" location="currency-convert" xr:uid="{6737EA30-0222-4AE0-A6B6-524639736439}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6892,27 +7116,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6929,23 +7152,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\plot-that-lines\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B6C57-F8D8-4B46-ABB1-8261E6659D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE84E2-EEBB-4729-9E7C-51469A967E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>J'essaie de convertir une devise en une autre depuis l'api</t>
+  </si>
+  <si>
+    <t>J'avais oublié de push le jeux de donnée</t>
+  </si>
+  <si>
+    <t>Refactoriser le code pour plus utiliser de la programmation fonctionnel</t>
+  </si>
+  <si>
+    <t>Travail effectué en dehors des cours pour rattraper mes périodes manqués le 20.09.2024</t>
   </si>
 </sst>
 </file>
@@ -347,106 +356,11 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -557,7 +471,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -565,14 +479,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="11">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -766,28 +680,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N531"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="91.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="2.875" customWidth="1"/>
+    <col min="14" max="14" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -797,7 +711,7 @@
       </c>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
@@ -830,13 +744,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="21">
         <f>SUM(C5:C521)</f>
-        <v>0.49652777777777773</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -848,7 +762,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
@@ -868,7 +782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -889,7 +803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -910,7 +824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -931,7 +845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -952,7 +866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -973,7 +887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>36</v>
@@ -992,7 +906,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>36</v>
@@ -1013,7 +927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="62" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>36</v>
@@ -1032,7 +946,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -1051,7 +965,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -1070,7 +984,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -1089,7 +1003,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -1110,7 +1024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1129,7 +1043,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1148,7 +1062,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1169,7 +1083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1188,7 +1102,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1209,7 +1123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1228,7 +1142,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1247,29 +1161,49 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="str">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="str">
+        <v>39</v>
+      </c>
+      <c r="B25" s="9">
+        <v>45563</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B26" s="9">
+        <v>45563</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="str">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1280,7 +1214,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1291,7 +1225,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="str">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1302,7 +1236,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1313,7 +1247,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1324,7 +1258,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1335,7 +1269,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1346,7 +1280,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1357,7 +1291,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1368,7 +1302,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1379,7 +1313,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1390,7 +1324,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1401,7 +1335,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1412,7 +1346,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1423,7 +1357,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1434,7 +1368,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1445,7 +1379,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1456,7 +1390,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1467,7 +1401,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1478,7 +1412,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1489,7 +1423,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1500,7 +1434,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1511,7 +1445,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1522,7 +1456,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1533,7 +1467,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1544,7 +1478,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1555,7 +1489,7 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1566,7 +1500,7 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1577,7 +1511,7 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1588,7 +1522,7 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1599,7 +1533,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1610,7 +1544,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1621,7 +1555,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1632,7 +1566,7 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1643,7 +1577,7 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1654,7 +1588,7 @@
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1665,7 +1599,7 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1676,7 +1610,7 @@
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1687,7 +1621,7 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1698,7 +1632,7 @@
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1709,7 +1643,7 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1720,7 +1654,7 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1731,7 +1665,7 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1742,7 +1676,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="14" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1753,7 +1687,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1764,7 +1698,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1775,7 +1709,7 @@
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1786,7 +1720,7 @@
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1797,7 +1731,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1808,7 +1742,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1819,7 +1753,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1830,7 +1764,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1841,7 +1775,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1852,7 +1786,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1863,7 +1797,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1874,7 +1808,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1885,7 +1819,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1896,7 +1830,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="14" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1907,7 +1841,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1918,7 +1852,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1929,7 +1863,7 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1940,7 +1874,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="14" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1951,7 +1885,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="14" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1962,7 +1896,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="14" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1973,7 +1907,7 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="14" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1984,7 +1918,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1995,7 +1929,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="14" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2006,7 +1940,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2017,7 +1951,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="14" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2028,7 +1962,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="14" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2039,7 +1973,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="14" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2050,7 +1984,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="14" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2061,7 +1995,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="14" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2072,7 +2006,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="14" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2083,7 +2017,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="14" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2094,7 +2028,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="14" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2105,7 +2039,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="14" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2116,7 +2050,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="14" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2127,7 +2061,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="14" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2138,7 +2072,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="14" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2149,7 +2083,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="14" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2160,7 +2094,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="14" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2171,7 +2105,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="14" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2182,7 +2116,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="14" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2193,7 +2127,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="14" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2204,7 +2138,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="14" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2215,7 +2149,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="14" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2226,7 +2160,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="14" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2237,7 +2171,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="14" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2248,7 +2182,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="14" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2259,7 +2193,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="14" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2270,7 +2204,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="14" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2281,7 +2215,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="14" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2292,7 +2226,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="14" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2303,7 +2237,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="14" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2314,7 +2248,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="14" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2325,7 +2259,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="14" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2336,7 +2270,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="14" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2347,7 +2281,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="14" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2358,7 +2292,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="14" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2369,7 +2303,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="14" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2380,7 +2314,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="14" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2391,7 +2325,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="14" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2402,7 +2336,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="14" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2413,7 +2347,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="14" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2424,7 +2358,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="14" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2435,7 +2369,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="14" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2446,7 +2380,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="14" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2457,7 +2391,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="14" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2468,7 +2402,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="14" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2479,7 +2413,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="14" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2490,7 +2424,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="14" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2501,7 +2435,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="14" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2512,7 +2446,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="14" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2523,7 +2457,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="14" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2534,7 +2468,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="14" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2545,7 +2479,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="14" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2556,7 +2490,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="14" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2567,7 +2501,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="14" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2578,7 +2512,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="14" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2589,7 +2523,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="14" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2600,7 +2534,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="14" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2611,7 +2545,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="14" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2622,7 +2556,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="14" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2633,7 +2567,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="14" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2644,7 +2578,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="14" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2655,7 +2589,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="14" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2666,7 +2600,7 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="14" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2677,7 +2611,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="14" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2688,7 +2622,7 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="14" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2699,7 +2633,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="14" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2710,7 +2644,7 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="14" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2721,7 +2655,7 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="14" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2732,7 +2666,7 @@
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="14" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2743,7 +2677,7 @@
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="14" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2754,7 +2688,7 @@
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="14" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2765,7 +2699,7 @@
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="14" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2776,7 +2710,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="14" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2787,7 +2721,7 @@
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="14" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2798,7 +2732,7 @@
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="14" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2809,7 +2743,7 @@
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="14" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2820,7 +2754,7 @@
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="14" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2831,7 +2765,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="14" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2842,7 +2776,7 @@
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2853,7 +2787,7 @@
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2864,7 +2798,7 @@
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2875,7 +2809,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="14" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2886,7 +2820,7 @@
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="14" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2897,7 +2831,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="14" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2908,7 +2842,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2919,7 +2853,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2930,7 +2864,7 @@
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2941,7 +2875,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="14" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2952,7 +2886,7 @@
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="14" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2963,7 +2897,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="14" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2974,7 +2908,7 @@
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="14" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2985,7 +2919,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2996,7 +2930,7 @@
       <c r="E183" s="11"/>
       <c r="F183" s="11"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3007,7 +2941,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="14" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3018,7 +2952,7 @@
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="14" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3029,7 +2963,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="14" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3040,7 +2974,7 @@
       <c r="E187" s="11"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="14" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3051,7 +2985,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="14" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3062,7 +2996,7 @@
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="14" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3073,7 +3007,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="14" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3084,7 +3018,7 @@
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="14" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3095,7 +3029,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="14" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3106,7 +3040,7 @@
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="14" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3117,7 +3051,7 @@
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="14" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3128,7 +3062,7 @@
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="14" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3139,7 +3073,7 @@
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="14" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3150,7 +3084,7 @@
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="14" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3161,7 +3095,7 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="14" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3172,7 +3106,7 @@
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="14" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3183,7 +3117,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="14" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3194,7 +3128,7 @@
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="14" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3205,7 +3139,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="14" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3216,7 +3150,7 @@
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="14" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3227,7 +3161,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="14" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3238,7 +3172,7 @@
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="14" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3249,7 +3183,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="14" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3260,7 +3194,7 @@
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="14" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3271,7 +3205,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="14" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3282,7 +3216,7 @@
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="14" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3293,7 +3227,7 @@
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="14" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3304,7 +3238,7 @@
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="14" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3315,7 +3249,7 @@
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="14" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3326,7 +3260,7 @@
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="14" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3337,7 +3271,7 @@
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="14" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3348,7 +3282,7 @@
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="14" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3359,7 +3293,7 @@
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="14" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3370,7 +3304,7 @@
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="14" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3381,7 +3315,7 @@
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="14" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3392,7 +3326,7 @@
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="14" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3403,7 +3337,7 @@
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="14" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3414,7 +3348,7 @@
       <c r="E221" s="11"/>
       <c r="F221" s="11"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="14" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3425,7 +3359,7 @@
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="14" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3436,7 +3370,7 @@
       <c r="E223" s="11"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="14" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3447,7 +3381,7 @@
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="14" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3458,7 +3392,7 @@
       <c r="E225" s="11"/>
       <c r="F225" s="11"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="14" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3469,7 +3403,7 @@
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="14" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3480,7 +3414,7 @@
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="14" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3491,7 +3425,7 @@
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="14" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3502,7 +3436,7 @@
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="14" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3513,7 +3447,7 @@
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="14" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3524,7 +3458,7 @@
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="14" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3535,7 +3469,7 @@
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="14" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3546,7 +3480,7 @@
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="14" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3557,7 +3491,7 @@
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="14" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3568,7 +3502,7 @@
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="14" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3579,7 +3513,7 @@
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="14" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3590,7 +3524,7 @@
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="14" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3601,7 +3535,7 @@
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="14" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3612,7 +3546,7 @@
       <c r="E239" s="11"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="14" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3623,7 +3557,7 @@
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="14" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3634,7 +3568,7 @@
       <c r="E241" s="11"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="14" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3645,7 +3579,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="14" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3656,7 +3590,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="14" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3667,7 +3601,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="14" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3678,7 +3612,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="14" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3689,7 +3623,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="14" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3700,7 +3634,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="14" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3711,7 +3645,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="14" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3722,7 +3656,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="14" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3733,7 +3667,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="14" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3744,7 +3678,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="14" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3755,7 +3689,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="14" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3766,7 +3700,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="14" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3777,7 +3711,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="14" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3788,7 +3722,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="14" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3799,7 +3733,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="14" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3810,7 +3744,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="14" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3821,7 +3755,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="14" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3832,7 +3766,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="14" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3843,7 +3777,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="14" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3854,7 +3788,7 @@
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="14" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3865,7 +3799,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="14" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3876,7 +3810,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="14" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3887,7 +3821,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="14" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3898,7 +3832,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="14" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3909,7 +3843,7 @@
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="14" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3920,7 +3854,7 @@
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="14" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3931,7 +3865,7 @@
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="14" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3942,7 +3876,7 @@
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="14" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3953,7 +3887,7 @@
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="14" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3964,7 +3898,7 @@
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="14" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3975,7 +3909,7 @@
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="14" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3986,7 +3920,7 @@
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="14" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3997,7 +3931,7 @@
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="14" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4008,7 +3942,7 @@
       <c r="E275" s="11"/>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="14" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4019,7 +3953,7 @@
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="14" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4030,7 +3964,7 @@
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="14" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4041,7 +3975,7 @@
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="14" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4052,7 +3986,7 @@
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="14" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4063,7 +3997,7 @@
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="14" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4074,7 +4008,7 @@
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="14" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4085,7 +4019,7 @@
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="14" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4096,7 +4030,7 @@
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="14" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4107,7 +4041,7 @@
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="14" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4118,7 +4052,7 @@
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="14" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4129,7 +4063,7 @@
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="14" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4140,7 +4074,7 @@
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="14" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4151,7 +4085,7 @@
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="14" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4162,7 +4096,7 @@
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="14" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4173,7 +4107,7 @@
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="14" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4184,7 +4118,7 @@
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="14" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4195,7 +4129,7 @@
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="14" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4206,7 +4140,7 @@
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="14" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4217,7 +4151,7 @@
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="14" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4228,7 +4162,7 @@
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="14" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4239,7 +4173,7 @@
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="14" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4250,7 +4184,7 @@
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="14" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4261,7 +4195,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="14" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4272,7 +4206,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="14" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4283,7 +4217,7 @@
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="14" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4294,7 +4228,7 @@
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="14" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4305,7 +4239,7 @@
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="14" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4316,7 +4250,7 @@
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="14" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4327,7 +4261,7 @@
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="14" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4338,7 +4272,7 @@
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="14" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4349,7 +4283,7 @@
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="14" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4360,7 +4294,7 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="14" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4371,7 +4305,7 @@
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="14" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4382,7 +4316,7 @@
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="14" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4393,7 +4327,7 @@
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="14" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4404,7 +4338,7 @@
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="14" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4415,7 +4349,7 @@
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="14" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4426,7 +4360,7 @@
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="14" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4437,7 +4371,7 @@
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="14" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4448,7 +4382,7 @@
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="14" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4459,7 +4393,7 @@
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="14" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4470,7 +4404,7 @@
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="14" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4481,7 +4415,7 @@
       <c r="E318" s="11"/>
       <c r="F318" s="11"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="14" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4492,7 +4426,7 @@
       <c r="E319" s="11"/>
       <c r="F319" s="11"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="14" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4503,7 +4437,7 @@
       <c r="E320" s="11"/>
       <c r="F320" s="11"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="14" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4514,7 +4448,7 @@
       <c r="E321" s="11"/>
       <c r="F321" s="11"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="14" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4525,7 +4459,7 @@
       <c r="E322" s="11"/>
       <c r="F322" s="11"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="14" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4536,7 +4470,7 @@
       <c r="E323" s="11"/>
       <c r="F323" s="11"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="14" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4547,7 +4481,7 @@
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="14" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4558,7 +4492,7 @@
       <c r="E325" s="11"/>
       <c r="F325" s="11"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="14" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4569,7 +4503,7 @@
       <c r="E326" s="11"/>
       <c r="F326" s="11"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="14" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4580,7 +4514,7 @@
       <c r="E327" s="11"/>
       <c r="F327" s="11"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="14" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4591,7 +4525,7 @@
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="14" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4602,7 +4536,7 @@
       <c r="E329" s="11"/>
       <c r="F329" s="11"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="14" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4613,7 +4547,7 @@
       <c r="E330" s="11"/>
       <c r="F330" s="11"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="14" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4624,7 +4558,7 @@
       <c r="E331" s="11"/>
       <c r="F331" s="11"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="14" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4635,7 +4569,7 @@
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="14" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4646,7 +4580,7 @@
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="14" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4657,7 +4591,7 @@
       <c r="E334" s="11"/>
       <c r="F334" s="11"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="14" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4668,7 +4602,7 @@
       <c r="E335" s="11"/>
       <c r="F335" s="11"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="14" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4679,7 +4613,7 @@
       <c r="E336" s="11"/>
       <c r="F336" s="11"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="14" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4690,7 +4624,7 @@
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="14" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4701,7 +4635,7 @@
       <c r="E338" s="11"/>
       <c r="F338" s="11"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="14" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4712,7 +4646,7 @@
       <c r="E339" s="11"/>
       <c r="F339" s="11"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="14" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4723,7 +4657,7 @@
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="14" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4734,7 +4668,7 @@
       <c r="E341" s="11"/>
       <c r="F341" s="11"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="14" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4745,7 +4679,7 @@
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="14" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4756,7 +4690,7 @@
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="14" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4767,7 +4701,7 @@
       <c r="E344" s="11"/>
       <c r="F344" s="11"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="14" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4778,7 +4712,7 @@
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="14" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4789,7 +4723,7 @@
       <c r="E346" s="11"/>
       <c r="F346" s="11"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="14" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4800,7 +4734,7 @@
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="14" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4811,7 +4745,7 @@
       <c r="E348" s="11"/>
       <c r="F348" s="11"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="14" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4822,7 +4756,7 @@
       <c r="E349" s="11"/>
       <c r="F349" s="11"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="14" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4833,7 +4767,7 @@
       <c r="E350" s="11"/>
       <c r="F350" s="11"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="14" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4844,7 +4778,7 @@
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="14" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4855,7 +4789,7 @@
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="14" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4866,7 +4800,7 @@
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="14" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4877,7 +4811,7 @@
       <c r="E354" s="11"/>
       <c r="F354" s="11"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="14" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4888,7 +4822,7 @@
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="14" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4899,7 +4833,7 @@
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="14" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4910,7 +4844,7 @@
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="14" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4921,7 +4855,7 @@
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="14" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4932,7 +4866,7 @@
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="14" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4943,7 +4877,7 @@
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="14" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4954,7 +4888,7 @@
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="14" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4965,7 +4899,7 @@
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="14" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4976,7 +4910,7 @@
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="14" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4987,7 +4921,7 @@
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="14" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4998,7 +4932,7 @@
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="14" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5009,7 +4943,7 @@
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="14" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5020,7 +4954,7 @@
       <c r="E367" s="11"/>
       <c r="F367" s="11"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="14" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5031,7 +4965,7 @@
       <c r="E368" s="11"/>
       <c r="F368" s="11"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="14" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5042,7 +4976,7 @@
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="14" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5053,7 +4987,7 @@
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="14" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5064,7 +4998,7 @@
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="14" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5075,7 +5009,7 @@
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="14" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5086,7 +5020,7 @@
       <c r="E373" s="11"/>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="14" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5097,7 +5031,7 @@
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="14" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5108,7 +5042,7 @@
       <c r="E375" s="11"/>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="14" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5119,7 +5053,7 @@
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="14" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5130,7 +5064,7 @@
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="14" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5141,7 +5075,7 @@
       <c r="E378" s="11"/>
       <c r="F378" s="11"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="14" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5152,7 +5086,7 @@
       <c r="E379" s="11"/>
       <c r="F379" s="11"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="14" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5163,7 +5097,7 @@
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="14" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5174,7 +5108,7 @@
       <c r="E381" s="11"/>
       <c r="F381" s="11"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="14" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5185,7 +5119,7 @@
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="14" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5196,7 +5130,7 @@
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="14" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5207,7 +5141,7 @@
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="14" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5218,7 +5152,7 @@
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="14" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5229,7 +5163,7 @@
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="14" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5240,7 +5174,7 @@
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="14" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5251,7 +5185,7 @@
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="14" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5262,7 +5196,7 @@
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="14" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5273,7 +5207,7 @@
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="14" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5284,7 +5218,7 @@
       <c r="E391" s="11"/>
       <c r="F391" s="11"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="14" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5295,7 +5229,7 @@
       <c r="E392" s="11"/>
       <c r="F392" s="11"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="14" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5306,7 +5240,7 @@
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="14" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5317,7 +5251,7 @@
       <c r="E394" s="11"/>
       <c r="F394" s="11"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="14" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5328,7 +5262,7 @@
       <c r="E395" s="11"/>
       <c r="F395" s="11"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="14" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5339,7 +5273,7 @@
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="14" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5350,7 +5284,7 @@
       <c r="E397" s="11"/>
       <c r="F397" s="11"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="14" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5361,7 +5295,7 @@
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="14" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5372,7 +5306,7 @@
       <c r="E399" s="11"/>
       <c r="F399" s="11"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="14" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5383,7 +5317,7 @@
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="14" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5394,7 +5328,7 @@
       <c r="E401" s="11"/>
       <c r="F401" s="11"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="14" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5405,7 +5339,7 @@
       <c r="E402" s="11"/>
       <c r="F402" s="11"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="14" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5416,7 +5350,7 @@
       <c r="E403" s="11"/>
       <c r="F403" s="11"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="14" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5427,7 +5361,7 @@
       <c r="E404" s="11"/>
       <c r="F404" s="11"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="14" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5438,7 +5372,7 @@
       <c r="E405" s="11"/>
       <c r="F405" s="11"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="14" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5449,7 +5383,7 @@
       <c r="E406" s="11"/>
       <c r="F406" s="11"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="14" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5460,7 +5394,7 @@
       <c r="E407" s="11"/>
       <c r="F407" s="11"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="14" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5471,7 +5405,7 @@
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="14" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5482,7 +5416,7 @@
       <c r="E409" s="11"/>
       <c r="F409" s="11"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="14" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5493,7 +5427,7 @@
       <c r="E410" s="11"/>
       <c r="F410" s="11"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="14" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5504,7 +5438,7 @@
       <c r="E411" s="11"/>
       <c r="F411" s="11"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="14" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5515,7 +5449,7 @@
       <c r="E412" s="11"/>
       <c r="F412" s="11"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="14" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5526,7 +5460,7 @@
       <c r="E413" s="11"/>
       <c r="F413" s="11"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="14" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5537,7 +5471,7 @@
       <c r="E414" s="11"/>
       <c r="F414" s="11"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="14" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5548,7 +5482,7 @@
       <c r="E415" s="11"/>
       <c r="F415" s="11"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="14" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5559,7 +5493,7 @@
       <c r="E416" s="11"/>
       <c r="F416" s="11"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="14" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5570,7 +5504,7 @@
       <c r="E417" s="11"/>
       <c r="F417" s="11"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="14" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5581,7 +5515,7 @@
       <c r="E418" s="11"/>
       <c r="F418" s="11"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="14" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5592,7 +5526,7 @@
       <c r="E419" s="11"/>
       <c r="F419" s="11"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="14" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5603,7 +5537,7 @@
       <c r="E420" s="11"/>
       <c r="F420" s="11"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="14" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5614,7 +5548,7 @@
       <c r="E421" s="11"/>
       <c r="F421" s="11"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="14" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5625,7 +5559,7 @@
       <c r="E422" s="11"/>
       <c r="F422" s="11"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="14" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5636,7 +5570,7 @@
       <c r="E423" s="11"/>
       <c r="F423" s="11"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="14" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5647,7 +5581,7 @@
       <c r="E424" s="11"/>
       <c r="F424" s="11"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="14" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5658,7 +5592,7 @@
       <c r="E425" s="11"/>
       <c r="F425" s="11"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="14" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5669,7 +5603,7 @@
       <c r="E426" s="11"/>
       <c r="F426" s="11"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="14" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5680,7 +5614,7 @@
       <c r="E427" s="11"/>
       <c r="F427" s="11"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="14" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5691,7 +5625,7 @@
       <c r="E428" s="11"/>
       <c r="F428" s="11"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="14" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5702,7 +5636,7 @@
       <c r="E429" s="11"/>
       <c r="F429" s="11"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="14" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5713,7 +5647,7 @@
       <c r="E430" s="11"/>
       <c r="F430" s="11"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="14" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5724,7 +5658,7 @@
       <c r="E431" s="11"/>
       <c r="F431" s="11"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="14" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5735,7 +5669,7 @@
       <c r="E432" s="11"/>
       <c r="F432" s="11"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="14" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5746,7 +5680,7 @@
       <c r="E433" s="11"/>
       <c r="F433" s="11"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="14" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5757,7 +5691,7 @@
       <c r="E434" s="11"/>
       <c r="F434" s="11"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="14" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5768,7 +5702,7 @@
       <c r="E435" s="11"/>
       <c r="F435" s="11"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="14" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5779,7 +5713,7 @@
       <c r="E436" s="11"/>
       <c r="F436" s="11"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="14" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5790,7 +5724,7 @@
       <c r="E437" s="11"/>
       <c r="F437" s="11"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="14" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5801,7 +5735,7 @@
       <c r="E438" s="11"/>
       <c r="F438" s="11"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="14" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5812,7 +5746,7 @@
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="14" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5823,7 +5757,7 @@
       <c r="E440" s="11"/>
       <c r="F440" s="11"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="14" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5834,7 +5768,7 @@
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="14" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5845,7 +5779,7 @@
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="14" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5856,7 +5790,7 @@
       <c r="E443" s="11"/>
       <c r="F443" s="11"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="14" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5867,7 +5801,7 @@
       <c r="E444" s="11"/>
       <c r="F444" s="11"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="14" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5878,7 +5812,7 @@
       <c r="E445" s="11"/>
       <c r="F445" s="11"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="14" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5889,7 +5823,7 @@
       <c r="E446" s="11"/>
       <c r="F446" s="11"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="14" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5900,7 +5834,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="11"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="14" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5911,7 +5845,7 @@
       <c r="E448" s="11"/>
       <c r="F448" s="11"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="14" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5922,7 +5856,7 @@
       <c r="E449" s="11"/>
       <c r="F449" s="11"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="14" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5933,7 +5867,7 @@
       <c r="E450" s="11"/>
       <c r="F450" s="11"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="14" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5944,7 +5878,7 @@
       <c r="E451" s="11"/>
       <c r="F451" s="11"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="14" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5955,7 +5889,7 @@
       <c r="E452" s="11"/>
       <c r="F452" s="11"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="14" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5966,7 +5900,7 @@
       <c r="E453" s="11"/>
       <c r="F453" s="11"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="14" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5977,7 +5911,7 @@
       <c r="E454" s="11"/>
       <c r="F454" s="11"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="14" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5988,7 +5922,7 @@
       <c r="E455" s="11"/>
       <c r="F455" s="11"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="14" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5999,7 +5933,7 @@
       <c r="E456" s="11"/>
       <c r="F456" s="11"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="14" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6010,7 +5944,7 @@
       <c r="E457" s="11"/>
       <c r="F457" s="11"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="14" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6021,7 +5955,7 @@
       <c r="E458" s="11"/>
       <c r="F458" s="11"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="14" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6032,7 +5966,7 @@
       <c r="E459" s="11"/>
       <c r="F459" s="11"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="14" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6043,7 +5977,7 @@
       <c r="E460" s="11"/>
       <c r="F460" s="11"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="14" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6054,7 +5988,7 @@
       <c r="E461" s="11"/>
       <c r="F461" s="11"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="14" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6065,7 +5999,7 @@
       <c r="E462" s="11"/>
       <c r="F462" s="11"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="14" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6076,7 +6010,7 @@
       <c r="E463" s="11"/>
       <c r="F463" s="11"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="14" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6087,7 +6021,7 @@
       <c r="E464" s="11"/>
       <c r="F464" s="11"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="14" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6098,7 +6032,7 @@
       <c r="E465" s="11"/>
       <c r="F465" s="11"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="14" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6109,7 +6043,7 @@
       <c r="E466" s="11"/>
       <c r="F466" s="11"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="14" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6120,7 +6054,7 @@
       <c r="E467" s="11"/>
       <c r="F467" s="11"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="14" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6131,7 +6065,7 @@
       <c r="E468" s="11"/>
       <c r="F468" s="11"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="14" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6142,7 +6076,7 @@
       <c r="E469" s="11"/>
       <c r="F469" s="11"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="14" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6153,7 +6087,7 @@
       <c r="E470" s="11"/>
       <c r="F470" s="11"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="14" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6164,7 +6098,7 @@
       <c r="E471" s="11"/>
       <c r="F471" s="11"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="14" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6175,7 +6109,7 @@
       <c r="E472" s="11"/>
       <c r="F472" s="11"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="14" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6186,7 +6120,7 @@
       <c r="E473" s="11"/>
       <c r="F473" s="11"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="14" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6197,7 +6131,7 @@
       <c r="E474" s="11"/>
       <c r="F474" s="11"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="14" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6208,7 +6142,7 @@
       <c r="E475" s="11"/>
       <c r="F475" s="11"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="14" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6219,7 +6153,7 @@
       <c r="E476" s="11"/>
       <c r="F476" s="11"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="14" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6230,7 +6164,7 @@
       <c r="E477" s="11"/>
       <c r="F477" s="11"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="14" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6241,7 +6175,7 @@
       <c r="E478" s="11"/>
       <c r="F478" s="11"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="14" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6252,7 +6186,7 @@
       <c r="E479" s="11"/>
       <c r="F479" s="11"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="14" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6263,7 +6197,7 @@
       <c r="E480" s="11"/>
       <c r="F480" s="11"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="14" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6274,7 +6208,7 @@
       <c r="E481" s="11"/>
       <c r="F481" s="11"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="14" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6285,7 +6219,7 @@
       <c r="E482" s="11"/>
       <c r="F482" s="11"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="14" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6296,7 +6230,7 @@
       <c r="E483" s="11"/>
       <c r="F483" s="11"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="14" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6307,7 +6241,7 @@
       <c r="E484" s="11"/>
       <c r="F484" s="11"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="14" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6318,7 +6252,7 @@
       <c r="E485" s="11"/>
       <c r="F485" s="11"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="14" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6329,7 +6263,7 @@
       <c r="E486" s="11"/>
       <c r="F486" s="11"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="14" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6340,7 +6274,7 @@
       <c r="E487" s="11"/>
       <c r="F487" s="11"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="14" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6351,7 +6285,7 @@
       <c r="E488" s="11"/>
       <c r="F488" s="11"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="14" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6362,7 +6296,7 @@
       <c r="E489" s="11"/>
       <c r="F489" s="11"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="14" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6373,7 +6307,7 @@
       <c r="E490" s="11"/>
       <c r="F490" s="11"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="14" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6384,7 +6318,7 @@
       <c r="E491" s="11"/>
       <c r="F491" s="11"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="14" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6395,7 +6329,7 @@
       <c r="E492" s="11"/>
       <c r="F492" s="11"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="14" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6406,7 +6340,7 @@
       <c r="E493" s="11"/>
       <c r="F493" s="11"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="14" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6417,7 +6351,7 @@
       <c r="E494" s="11"/>
       <c r="F494" s="11"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="14" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6428,7 +6362,7 @@
       <c r="E495" s="11"/>
       <c r="F495" s="11"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="14" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6439,7 +6373,7 @@
       <c r="E496" s="11"/>
       <c r="F496" s="11"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="14" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6450,7 +6384,7 @@
       <c r="E497" s="11"/>
       <c r="F497" s="11"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="14" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6461,7 +6395,7 @@
       <c r="E498" s="11"/>
       <c r="F498" s="11"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="14" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6472,7 +6406,7 @@
       <c r="E499" s="11"/>
       <c r="F499" s="11"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="14" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6483,7 +6417,7 @@
       <c r="E500" s="11"/>
       <c r="F500" s="11"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="14" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6494,7 +6428,7 @@
       <c r="E501" s="11"/>
       <c r="F501" s="11"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="14" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6505,7 +6439,7 @@
       <c r="E502" s="11"/>
       <c r="F502" s="11"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="14" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6516,7 +6450,7 @@
       <c r="E503" s="11"/>
       <c r="F503" s="11"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="14" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6527,7 +6461,7 @@
       <c r="E504" s="11"/>
       <c r="F504" s="11"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="14" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6538,7 +6472,7 @@
       <c r="E505" s="11"/>
       <c r="F505" s="11"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="14" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6549,7 +6483,7 @@
       <c r="E506" s="11"/>
       <c r="F506" s="11"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="14" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6560,7 +6494,7 @@
       <c r="E507" s="11"/>
       <c r="F507" s="11"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="14" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6571,7 +6505,7 @@
       <c r="E508" s="11"/>
       <c r="F508" s="11"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="14" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6582,7 +6516,7 @@
       <c r="E509" s="11"/>
       <c r="F509" s="11"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="14" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6593,7 +6527,7 @@
       <c r="E510" s="11"/>
       <c r="F510" s="11"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="14" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6604,7 +6538,7 @@
       <c r="E511" s="11"/>
       <c r="F511" s="11"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="14" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6615,7 +6549,7 @@
       <c r="E512" s="11"/>
       <c r="F512" s="11"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="14" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6626,7 +6560,7 @@
       <c r="E513" s="11"/>
       <c r="F513" s="11"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="14" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6637,7 +6571,7 @@
       <c r="E514" s="11"/>
       <c r="F514" s="11"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="14" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6648,7 +6582,7 @@
       <c r="E515" s="11"/>
       <c r="F515" s="11"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="14" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6659,7 +6593,7 @@
       <c r="E516" s="11"/>
       <c r="F516" s="11"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="14" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6670,7 +6604,7 @@
       <c r="E517" s="11"/>
       <c r="F517" s="11"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="14" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6681,7 +6615,7 @@
       <c r="E518" s="11"/>
       <c r="F518" s="11"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="14" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6692,7 +6626,7 @@
       <c r="E519" s="11"/>
       <c r="F519" s="11"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="14" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6703,7 +6637,7 @@
       <c r="E520" s="11"/>
       <c r="F520" s="11"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="14" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6714,7 +6648,7 @@
       <c r="E521" s="11"/>
       <c r="F521" s="11"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="14" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6725,7 +6659,7 @@
       <c r="E522" s="11"/>
       <c r="F522" s="11"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="14" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6736,7 +6670,7 @@
       <c r="E523" s="11"/>
       <c r="F523" s="11"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="14" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6747,7 +6681,7 @@
       <c r="E524" s="11"/>
       <c r="F524" s="11"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="14" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6758,7 +6692,7 @@
       <c r="E525" s="11"/>
       <c r="F525" s="11"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="14" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6769,7 +6703,7 @@
       <c r="E526" s="11"/>
       <c r="F526" s="11"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="14" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6780,7 +6714,7 @@
       <c r="E527" s="11"/>
       <c r="F527" s="11"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="14" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6791,7 +6725,7 @@
       <c r="E528" s="11"/>
       <c r="F528" s="11"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="14" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6802,7 +6736,7 @@
       <c r="E529" s="11"/>
       <c r="F529" s="11"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="14" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6813,7 +6747,7 @@
       <c r="E530" s="11"/>
       <c r="F530" s="11"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="14" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6830,24 +6764,24 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D$21="Imprévu"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6885,15 +6819,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7116,6 +7041,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
@@ -7128,14 +7062,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7152,4 +7078,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\plot-that-lines\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE84E2-EEBB-4729-9E7C-51469A967E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C54BDC8-D794-4E51-B021-0CDBD88FDAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>Travail effectué en dehors des cours pour rattraper mes périodes manqués le 20.09.2024</t>
+  </si>
+  <si>
+    <t>Écouter les instructions. Daily Scrum, me rappeller de ce qu'il y a à faire et de ce que j'ai fais la dernière fois, mettre à jour IceScrum</t>
+  </si>
+  <si>
+    <t>De par les informations données par le professeur j'ai modifié mon rapport et mon IceScrum. Je n'avais pas fait attention au fait que le filtre par date soit obligatoire et j'ai donc dû le rajouter dans mes user story et mes test d'acceptance</t>
+  </si>
+  <si>
+    <t>J'ai eu des difficultés a accéder à certaines variables. J'ai essayé d'utiliser des fonctions de ScottPlot, au final j'ai demandé à Tiago comment il avait fait et j'ai décidé de vider mes points puis de les réafficher</t>
+  </si>
+  <si>
+    <t>Clean le code, utiliser des fonctions</t>
   </si>
 </sst>
 </file>
@@ -358,6 +370,55 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -408,55 +469,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -471,7 +483,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -479,14 +491,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -680,28 +692,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="91.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="2.83203125" customWidth="1"/>
+    <col min="14" max="14" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -711,7 +723,7 @@
       </c>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
@@ -744,13 +756,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="21">
         <f>SUM(C5:C521)</f>
-        <v>0.54166666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -762,7 +774,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
@@ -782,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -803,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -824,7 +836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -845,7 +857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -866,7 +878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -887,7 +899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>36</v>
@@ -906,7 +918,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>36</v>
@@ -927,7 +939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>36</v>
@@ -946,7 +958,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -965,7 +977,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -984,7 +996,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -1003,7 +1015,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -1024,7 +1036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1043,7 +1055,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1062,7 +1074,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1083,7 +1095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1102,7 +1114,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1123,7 +1135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1142,7 +1154,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1161,7 +1173,7 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1182,7 +1194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1203,51 +1215,85 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="str">
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="B27" s="9">
+        <v>45569</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="str">
+    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="str">
+        <v>40</v>
+      </c>
+      <c r="B28" s="9">
+        <v>45569</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="B29" s="9">
+        <v>45569</v>
+      </c>
+      <c r="C29" s="10">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="str">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="B30" s="9">
+        <v>45569</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1258,7 +1304,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1269,7 +1315,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1280,7 +1326,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1291,7 +1337,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1302,7 +1348,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1313,7 +1359,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1324,7 +1370,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1335,7 +1381,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1346,7 +1392,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1357,7 +1403,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1368,7 +1414,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1379,7 +1425,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1390,7 +1436,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1401,7 +1447,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1412,7 +1458,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1423,7 +1469,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1434,7 +1480,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1445,7 +1491,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1456,7 +1502,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1467,7 +1513,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1478,7 +1524,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1489,7 +1535,7 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1500,7 +1546,7 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1511,7 +1557,7 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1522,7 +1568,7 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1533,7 +1579,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1544,7 +1590,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1555,7 +1601,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1566,7 +1612,7 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1577,7 +1623,7 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1588,7 +1634,7 @@
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1599,7 +1645,7 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1610,7 +1656,7 @@
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1621,7 +1667,7 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1632,7 +1678,7 @@
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1643,7 +1689,7 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1654,7 +1700,7 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1665,7 +1711,7 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1676,7 +1722,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1687,7 +1733,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1698,7 +1744,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1709,7 +1755,7 @@
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1720,7 +1766,7 @@
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1731,7 +1777,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1742,7 +1788,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1753,7 +1799,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1764,7 +1810,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1775,7 +1821,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1786,7 +1832,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1797,7 +1843,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1808,7 +1854,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1819,7 +1865,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1830,7 +1876,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1841,7 +1887,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1852,7 +1898,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1863,7 +1909,7 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1874,7 +1920,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1885,7 +1931,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1896,7 +1942,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1907,7 +1953,7 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1918,7 +1964,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1929,7 +1975,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1940,7 +1986,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1951,7 +1997,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1962,7 +2008,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1973,7 +2019,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1984,7 +2030,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1995,7 +2041,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2006,7 +2052,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2017,7 +2063,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2028,7 +2074,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2039,7 +2085,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2050,7 +2096,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2061,7 +2107,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2072,7 +2118,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2083,7 +2129,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2094,7 +2140,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2105,7 +2151,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2116,7 +2162,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2127,7 +2173,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2138,7 +2184,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2149,7 +2195,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2160,7 +2206,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2171,7 +2217,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2182,7 +2228,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2193,7 +2239,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2204,7 +2250,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2215,7 +2261,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2226,7 +2272,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2237,7 +2283,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2248,7 +2294,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2259,7 +2305,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2270,7 +2316,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2281,7 +2327,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2292,7 +2338,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2303,7 +2349,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2314,7 +2360,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2325,7 +2371,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2336,7 +2382,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2347,7 +2393,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2358,7 +2404,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2369,7 +2415,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2380,7 +2426,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2391,7 +2437,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2402,7 +2448,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2413,7 +2459,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2424,7 +2470,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2435,7 +2481,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2446,7 +2492,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2457,7 +2503,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2468,7 +2514,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2479,7 +2525,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2490,7 +2536,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2501,7 +2547,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2512,7 +2558,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2523,7 +2569,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2534,7 +2580,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2545,7 +2591,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2556,7 +2602,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2567,7 +2613,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2578,7 +2624,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2589,7 +2635,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2600,7 +2646,7 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2611,7 +2657,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2622,7 +2668,7 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2633,7 +2679,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2644,7 +2690,7 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2655,7 +2701,7 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2666,7 +2712,7 @@
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2677,7 +2723,7 @@
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2688,7 +2734,7 @@
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2699,7 +2745,7 @@
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2710,7 +2756,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2721,7 +2767,7 @@
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2732,7 +2778,7 @@
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2743,7 +2789,7 @@
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2754,7 +2800,7 @@
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2765,7 +2811,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2776,7 +2822,7 @@
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2787,7 +2833,7 @@
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2798,7 +2844,7 @@
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2809,7 +2855,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2820,7 +2866,7 @@
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2831,7 +2877,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2842,7 +2888,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2853,7 +2899,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2864,7 +2910,7 @@
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2875,7 +2921,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2886,7 +2932,7 @@
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2897,7 +2943,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2908,7 +2954,7 @@
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2919,7 +2965,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2930,7 +2976,7 @@
       <c r="E183" s="11"/>
       <c r="F183" s="11"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2941,7 +2987,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2952,7 +2998,7 @@
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2963,7 +3009,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2974,7 +3020,7 @@
       <c r="E187" s="11"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2985,7 +3031,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2996,7 +3042,7 @@
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3007,7 +3053,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3018,7 +3064,7 @@
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3029,7 +3075,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3040,7 +3086,7 @@
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3051,7 +3097,7 @@
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3062,7 +3108,7 @@
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3073,7 +3119,7 @@
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3084,7 +3130,7 @@
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3095,7 +3141,7 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3106,7 +3152,7 @@
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3117,7 +3163,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3128,7 +3174,7 @@
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3139,7 +3185,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3150,7 +3196,7 @@
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3161,7 +3207,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3172,7 +3218,7 @@
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3183,7 +3229,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3194,7 +3240,7 @@
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3205,7 +3251,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3216,7 +3262,7 @@
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3227,7 +3273,7 @@
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="14" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3238,7 +3284,7 @@
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3249,7 +3295,7 @@
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3260,7 +3306,7 @@
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3271,7 +3317,7 @@
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="14" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3282,7 +3328,7 @@
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3293,7 +3339,7 @@
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="14" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3304,7 +3350,7 @@
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3315,7 +3361,7 @@
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3326,7 +3372,7 @@
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3337,7 +3383,7 @@
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="14" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3348,7 +3394,7 @@
       <c r="E221" s="11"/>
       <c r="F221" s="11"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3359,7 +3405,7 @@
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="14" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3370,7 +3416,7 @@
       <c r="E223" s="11"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="14" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3381,7 +3427,7 @@
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3392,7 +3438,7 @@
       <c r="E225" s="11"/>
       <c r="F225" s="11"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="14" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3403,7 +3449,7 @@
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3414,7 +3460,7 @@
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3425,7 +3471,7 @@
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3436,7 +3482,7 @@
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3447,7 +3493,7 @@
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3458,7 +3504,7 @@
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3469,7 +3515,7 @@
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3480,7 +3526,7 @@
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3491,7 +3537,7 @@
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3502,7 +3548,7 @@
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3513,7 +3559,7 @@
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="14" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3524,7 +3570,7 @@
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3535,7 +3581,7 @@
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3546,7 +3592,7 @@
       <c r="E239" s="11"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3557,7 +3603,7 @@
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3568,7 +3614,7 @@
       <c r="E241" s="11"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3579,7 +3625,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="14" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3590,7 +3636,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3601,7 +3647,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3612,7 +3658,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3623,7 +3669,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3634,7 +3680,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3645,7 +3691,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="14" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3656,7 +3702,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3667,7 +3713,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3678,7 +3724,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3689,7 +3735,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3700,7 +3746,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3711,7 +3757,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="14" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3722,7 +3768,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3733,7 +3779,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3744,7 +3790,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3755,7 +3801,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="14" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3766,7 +3812,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3777,7 +3823,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="14" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3788,7 +3834,7 @@
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3799,7 +3845,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3810,7 +3856,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3821,7 +3867,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="14" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3832,7 +3878,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3843,7 +3889,7 @@
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="14" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3854,7 +3900,7 @@
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3865,7 +3911,7 @@
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3876,7 +3922,7 @@
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3887,7 +3933,7 @@
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3898,7 +3944,7 @@
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3909,7 +3955,7 @@
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3920,7 +3966,7 @@
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3931,7 +3977,7 @@
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="14" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3942,7 +3988,7 @@
       <c r="E275" s="11"/>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3953,7 +3999,7 @@
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3964,7 +4010,7 @@
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3975,7 +4021,7 @@
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3986,7 +4032,7 @@
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3997,7 +4043,7 @@
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="14" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4008,7 +4054,7 @@
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4019,7 +4065,7 @@
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="14" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4030,7 +4076,7 @@
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4041,7 +4087,7 @@
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4052,7 +4098,7 @@
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="14" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4063,7 +4109,7 @@
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="14" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4074,7 +4120,7 @@
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4085,7 +4131,7 @@
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4096,7 +4142,7 @@
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4107,7 +4153,7 @@
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4118,7 +4164,7 @@
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4129,7 +4175,7 @@
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4140,7 +4186,7 @@
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4151,7 +4197,7 @@
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="14" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4162,7 +4208,7 @@
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4173,7 +4219,7 @@
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="14" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4184,7 +4230,7 @@
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="14" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4195,7 +4241,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4206,7 +4252,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="14" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4217,7 +4263,7 @@
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="14" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4228,7 +4274,7 @@
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4239,7 +4285,7 @@
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4250,7 +4296,7 @@
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4261,7 +4307,7 @@
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4272,7 +4318,7 @@
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4283,7 +4329,7 @@
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4294,7 +4340,7 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="14" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4305,7 +4351,7 @@
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="14" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4316,7 +4362,7 @@
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4327,7 +4373,7 @@
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4338,7 +4384,7 @@
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4349,7 +4395,7 @@
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="14" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4360,7 +4406,7 @@
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4371,7 +4417,7 @@
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4382,7 +4428,7 @@
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4393,7 +4439,7 @@
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4404,7 +4450,7 @@
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4415,7 +4461,7 @@
       <c r="E318" s="11"/>
       <c r="F318" s="11"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4426,7 +4472,7 @@
       <c r="E319" s="11"/>
       <c r="F319" s="11"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4437,7 +4483,7 @@
       <c r="E320" s="11"/>
       <c r="F320" s="11"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4448,7 +4494,7 @@
       <c r="E321" s="11"/>
       <c r="F321" s="11"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4459,7 +4505,7 @@
       <c r="E322" s="11"/>
       <c r="F322" s="11"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4470,7 +4516,7 @@
       <c r="E323" s="11"/>
       <c r="F323" s="11"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4481,7 +4527,7 @@
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="14" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4492,7 +4538,7 @@
       <c r="E325" s="11"/>
       <c r="F325" s="11"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4503,7 +4549,7 @@
       <c r="E326" s="11"/>
       <c r="F326" s="11"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="14" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4514,7 +4560,7 @@
       <c r="E327" s="11"/>
       <c r="F327" s="11"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4525,7 +4571,7 @@
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="14" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4536,7 +4582,7 @@
       <c r="E329" s="11"/>
       <c r="F329" s="11"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4547,7 +4593,7 @@
       <c r="E330" s="11"/>
       <c r="F330" s="11"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4558,7 +4604,7 @@
       <c r="E331" s="11"/>
       <c r="F331" s="11"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4569,7 +4615,7 @@
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="14" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4580,7 +4626,7 @@
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="14" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4591,7 +4637,7 @@
       <c r="E334" s="11"/>
       <c r="F334" s="11"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="14" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4602,7 +4648,7 @@
       <c r="E335" s="11"/>
       <c r="F335" s="11"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4613,7 +4659,7 @@
       <c r="E336" s="11"/>
       <c r="F336" s="11"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4624,7 +4670,7 @@
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4635,7 +4681,7 @@
       <c r="E338" s="11"/>
       <c r="F338" s="11"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="14" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4646,7 +4692,7 @@
       <c r="E339" s="11"/>
       <c r="F339" s="11"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4657,7 +4703,7 @@
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="14" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4668,7 +4714,7 @@
       <c r="E341" s="11"/>
       <c r="F341" s="11"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="14" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4679,7 +4725,7 @@
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="14" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4690,7 +4736,7 @@
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="14" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4701,7 +4747,7 @@
       <c r="E344" s="11"/>
       <c r="F344" s="11"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="14" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4712,7 +4758,7 @@
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="14" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4723,7 +4769,7 @@
       <c r="E346" s="11"/>
       <c r="F346" s="11"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="14" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4734,7 +4780,7 @@
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4745,7 +4791,7 @@
       <c r="E348" s="11"/>
       <c r="F348" s="11"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="14" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4756,7 +4802,7 @@
       <c r="E349" s="11"/>
       <c r="F349" s="11"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4767,7 +4813,7 @@
       <c r="E350" s="11"/>
       <c r="F350" s="11"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4778,7 +4824,7 @@
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4789,7 +4835,7 @@
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4800,7 +4846,7 @@
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4811,7 +4857,7 @@
       <c r="E354" s="11"/>
       <c r="F354" s="11"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="14" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4822,7 +4868,7 @@
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4833,7 +4879,7 @@
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="14" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4844,7 +4890,7 @@
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="14" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4855,7 +4901,7 @@
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4866,7 +4912,7 @@
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="14" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4877,7 +4923,7 @@
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="14" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4888,7 +4934,7 @@
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="14" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4899,7 +4945,7 @@
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4910,7 +4956,7 @@
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4921,7 +4967,7 @@
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4932,7 +4978,7 @@
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4943,7 +4989,7 @@
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4954,7 +5000,7 @@
       <c r="E367" s="11"/>
       <c r="F367" s="11"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="14" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4965,7 +5011,7 @@
       <c r="E368" s="11"/>
       <c r="F368" s="11"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="14" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4976,7 +5022,7 @@
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4987,7 +5033,7 @@
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4998,7 +5044,7 @@
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5009,7 +5055,7 @@
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="14" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5020,7 +5066,7 @@
       <c r="E373" s="11"/>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="14" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5031,7 +5077,7 @@
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5042,7 +5088,7 @@
       <c r="E375" s="11"/>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5053,7 +5099,7 @@
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5064,7 +5110,7 @@
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="14" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5075,7 +5121,7 @@
       <c r="E378" s="11"/>
       <c r="F378" s="11"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="14" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5086,7 +5132,7 @@
       <c r="E379" s="11"/>
       <c r="F379" s="11"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="14" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5097,7 +5143,7 @@
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5108,7 +5154,7 @@
       <c r="E381" s="11"/>
       <c r="F381" s="11"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5119,7 +5165,7 @@
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5130,7 +5176,7 @@
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5141,7 +5187,7 @@
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="14" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5152,7 +5198,7 @@
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="14" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5163,7 +5209,7 @@
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="14" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5174,7 +5220,7 @@
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="14" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5185,7 +5231,7 @@
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="14" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5196,7 +5242,7 @@
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5207,7 +5253,7 @@
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5218,7 +5264,7 @@
       <c r="E391" s="11"/>
       <c r="F391" s="11"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5229,7 +5275,7 @@
       <c r="E392" s="11"/>
       <c r="F392" s="11"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="14" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5240,7 +5286,7 @@
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="14" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5251,7 +5297,7 @@
       <c r="E394" s="11"/>
       <c r="F394" s="11"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="14" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5262,7 +5308,7 @@
       <c r="E395" s="11"/>
       <c r="F395" s="11"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5273,7 +5319,7 @@
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5284,7 +5330,7 @@
       <c r="E397" s="11"/>
       <c r="F397" s="11"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5295,7 +5341,7 @@
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="14" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5306,7 +5352,7 @@
       <c r="E399" s="11"/>
       <c r="F399" s="11"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="14" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5317,7 +5363,7 @@
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="14" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5328,7 +5374,7 @@
       <c r="E401" s="11"/>
       <c r="F401" s="11"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="14" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5339,7 +5385,7 @@
       <c r="E402" s="11"/>
       <c r="F402" s="11"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="14" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5350,7 +5396,7 @@
       <c r="E403" s="11"/>
       <c r="F403" s="11"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="14" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5361,7 +5407,7 @@
       <c r="E404" s="11"/>
       <c r="F404" s="11"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="14" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5372,7 +5418,7 @@
       <c r="E405" s="11"/>
       <c r="F405" s="11"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="14" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5383,7 +5429,7 @@
       <c r="E406" s="11"/>
       <c r="F406" s="11"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="14" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5394,7 +5440,7 @@
       <c r="E407" s="11"/>
       <c r="F407" s="11"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5405,7 +5451,7 @@
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="14" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5416,7 +5462,7 @@
       <c r="E409" s="11"/>
       <c r="F409" s="11"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5427,7 +5473,7 @@
       <c r="E410" s="11"/>
       <c r="F410" s="11"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5438,7 +5484,7 @@
       <c r="E411" s="11"/>
       <c r="F411" s="11"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5449,7 +5495,7 @@
       <c r="E412" s="11"/>
       <c r="F412" s="11"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5460,7 +5506,7 @@
       <c r="E413" s="11"/>
       <c r="F413" s="11"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5471,7 +5517,7 @@
       <c r="E414" s="11"/>
       <c r="F414" s="11"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="14" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5482,7 +5528,7 @@
       <c r="E415" s="11"/>
       <c r="F415" s="11"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="14" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5493,7 +5539,7 @@
       <c r="E416" s="11"/>
       <c r="F416" s="11"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="14" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5504,7 +5550,7 @@
       <c r="E417" s="11"/>
       <c r="F417" s="11"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="14" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5515,7 +5561,7 @@
       <c r="E418" s="11"/>
       <c r="F418" s="11"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5526,7 +5572,7 @@
       <c r="E419" s="11"/>
       <c r="F419" s="11"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="14" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5537,7 +5583,7 @@
       <c r="E420" s="11"/>
       <c r="F420" s="11"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="14" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5548,7 +5594,7 @@
       <c r="E421" s="11"/>
       <c r="F421" s="11"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="14" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5559,7 +5605,7 @@
       <c r="E422" s="11"/>
       <c r="F422" s="11"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5570,7 +5616,7 @@
       <c r="E423" s="11"/>
       <c r="F423" s="11"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5581,7 +5627,7 @@
       <c r="E424" s="11"/>
       <c r="F424" s="11"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5592,7 +5638,7 @@
       <c r="E425" s="11"/>
       <c r="F425" s="11"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5603,7 +5649,7 @@
       <c r="E426" s="11"/>
       <c r="F426" s="11"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5614,7 +5660,7 @@
       <c r="E427" s="11"/>
       <c r="F427" s="11"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5625,7 +5671,7 @@
       <c r="E428" s="11"/>
       <c r="F428" s="11"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="14" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5636,7 +5682,7 @@
       <c r="E429" s="11"/>
       <c r="F429" s="11"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="14" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5647,7 +5693,7 @@
       <c r="E430" s="11"/>
       <c r="F430" s="11"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="14" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5658,7 +5704,7 @@
       <c r="E431" s="11"/>
       <c r="F431" s="11"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5669,7 +5715,7 @@
       <c r="E432" s="11"/>
       <c r="F432" s="11"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5680,7 +5726,7 @@
       <c r="E433" s="11"/>
       <c r="F433" s="11"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="14" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5691,7 +5737,7 @@
       <c r="E434" s="11"/>
       <c r="F434" s="11"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="14" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5702,7 +5748,7 @@
       <c r="E435" s="11"/>
       <c r="F435" s="11"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5713,7 +5759,7 @@
       <c r="E436" s="11"/>
       <c r="F436" s="11"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5724,7 +5770,7 @@
       <c r="E437" s="11"/>
       <c r="F437" s="11"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5735,7 +5781,7 @@
       <c r="E438" s="11"/>
       <c r="F438" s="11"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="14" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5746,7 +5792,7 @@
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="14" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5757,7 +5803,7 @@
       <c r="E440" s="11"/>
       <c r="F440" s="11"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="14" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5768,7 +5814,7 @@
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5779,7 +5825,7 @@
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5790,7 +5836,7 @@
       <c r="E443" s="11"/>
       <c r="F443" s="11"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5801,7 +5847,7 @@
       <c r="E444" s="11"/>
       <c r="F444" s="11"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5812,7 +5858,7 @@
       <c r="E445" s="11"/>
       <c r="F445" s="11"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5823,7 +5869,7 @@
       <c r="E446" s="11"/>
       <c r="F446" s="11"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="14" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5834,7 +5880,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="11"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="14" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5845,7 +5891,7 @@
       <c r="E448" s="11"/>
       <c r="F448" s="11"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="14" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5856,7 +5902,7 @@
       <c r="E449" s="11"/>
       <c r="F449" s="11"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="14" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5867,7 +5913,7 @@
       <c r="E450" s="11"/>
       <c r="F450" s="11"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="14" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5878,7 +5924,7 @@
       <c r="E451" s="11"/>
       <c r="F451" s="11"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5889,7 +5935,7 @@
       <c r="E452" s="11"/>
       <c r="F452" s="11"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5900,7 +5946,7 @@
       <c r="E453" s="11"/>
       <c r="F453" s="11"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5911,7 +5957,7 @@
       <c r="E454" s="11"/>
       <c r="F454" s="11"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="14" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5922,7 +5968,7 @@
       <c r="E455" s="11"/>
       <c r="F455" s="11"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="14" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5933,7 +5979,7 @@
       <c r="E456" s="11"/>
       <c r="F456" s="11"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="14" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5944,7 +5990,7 @@
       <c r="E457" s="11"/>
       <c r="F457" s="11"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="14" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5955,7 +6001,7 @@
       <c r="E458" s="11"/>
       <c r="F458" s="11"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5966,7 +6012,7 @@
       <c r="E459" s="11"/>
       <c r="F459" s="11"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5977,7 +6023,7 @@
       <c r="E460" s="11"/>
       <c r="F460" s="11"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="14" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5988,7 +6034,7 @@
       <c r="E461" s="11"/>
       <c r="F461" s="11"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="14" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5999,7 +6045,7 @@
       <c r="E462" s="11"/>
       <c r="F462" s="11"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="14" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6010,7 +6056,7 @@
       <c r="E463" s="11"/>
       <c r="F463" s="11"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="14" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6021,7 +6067,7 @@
       <c r="E464" s="11"/>
       <c r="F464" s="11"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="14" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6032,7 +6078,7 @@
       <c r="E465" s="11"/>
       <c r="F465" s="11"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="14" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6043,7 +6089,7 @@
       <c r="E466" s="11"/>
       <c r="F466" s="11"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="14" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6054,7 +6100,7 @@
       <c r="E467" s="11"/>
       <c r="F467" s="11"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="14" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6065,7 +6111,7 @@
       <c r="E468" s="11"/>
       <c r="F468" s="11"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="14" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6076,7 +6122,7 @@
       <c r="E469" s="11"/>
       <c r="F469" s="11"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6087,7 +6133,7 @@
       <c r="E470" s="11"/>
       <c r="F470" s="11"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="14" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6098,7 +6144,7 @@
       <c r="E471" s="11"/>
       <c r="F471" s="11"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6109,7 +6155,7 @@
       <c r="E472" s="11"/>
       <c r="F472" s="11"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6120,7 +6166,7 @@
       <c r="E473" s="11"/>
       <c r="F473" s="11"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6131,7 +6177,7 @@
       <c r="E474" s="11"/>
       <c r="F474" s="11"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6142,7 +6188,7 @@
       <c r="E475" s="11"/>
       <c r="F475" s="11"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6153,7 +6199,7 @@
       <c r="E476" s="11"/>
       <c r="F476" s="11"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="14" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6164,7 +6210,7 @@
       <c r="E477" s="11"/>
       <c r="F477" s="11"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="14" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6175,7 +6221,7 @@
       <c r="E478" s="11"/>
       <c r="F478" s="11"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="14" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6186,7 +6232,7 @@
       <c r="E479" s="11"/>
       <c r="F479" s="11"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="14" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6197,7 +6243,7 @@
       <c r="E480" s="11"/>
       <c r="F480" s="11"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6208,7 +6254,7 @@
       <c r="E481" s="11"/>
       <c r="F481" s="11"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="14" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6219,7 +6265,7 @@
       <c r="E482" s="11"/>
       <c r="F482" s="11"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="14" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6230,7 +6276,7 @@
       <c r="E483" s="11"/>
       <c r="F483" s="11"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="14" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6241,7 +6287,7 @@
       <c r="E484" s="11"/>
       <c r="F484" s="11"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6252,7 +6298,7 @@
       <c r="E485" s="11"/>
       <c r="F485" s="11"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6263,7 +6309,7 @@
       <c r="E486" s="11"/>
       <c r="F486" s="11"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6274,7 +6320,7 @@
       <c r="E487" s="11"/>
       <c r="F487" s="11"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6285,7 +6331,7 @@
       <c r="E488" s="11"/>
       <c r="F488" s="11"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6296,7 +6342,7 @@
       <c r="E489" s="11"/>
       <c r="F489" s="11"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6307,7 +6353,7 @@
       <c r="E490" s="11"/>
       <c r="F490" s="11"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6318,7 +6364,7 @@
       <c r="E491" s="11"/>
       <c r="F491" s="11"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="14" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6329,7 +6375,7 @@
       <c r="E492" s="11"/>
       <c r="F492" s="11"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="14" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6340,7 +6386,7 @@
       <c r="E493" s="11"/>
       <c r="F493" s="11"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6351,7 +6397,7 @@
       <c r="E494" s="11"/>
       <c r="F494" s="11"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6362,7 +6408,7 @@
       <c r="E495" s="11"/>
       <c r="F495" s="11"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6373,7 +6419,7 @@
       <c r="E496" s="11"/>
       <c r="F496" s="11"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="14" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6384,7 +6430,7 @@
       <c r="E497" s="11"/>
       <c r="F497" s="11"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="14" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6395,7 +6441,7 @@
       <c r="E498" s="11"/>
       <c r="F498" s="11"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6406,7 +6452,7 @@
       <c r="E499" s="11"/>
       <c r="F499" s="11"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6417,7 +6463,7 @@
       <c r="E500" s="11"/>
       <c r="F500" s="11"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6428,7 +6474,7 @@
       <c r="E501" s="11"/>
       <c r="F501" s="11"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="14" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6439,7 +6485,7 @@
       <c r="E502" s="11"/>
       <c r="F502" s="11"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="14" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6450,7 +6496,7 @@
       <c r="E503" s="11"/>
       <c r="F503" s="11"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="14" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6461,7 +6507,7 @@
       <c r="E504" s="11"/>
       <c r="F504" s="11"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6472,7 +6518,7 @@
       <c r="E505" s="11"/>
       <c r="F505" s="11"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6483,7 +6529,7 @@
       <c r="E506" s="11"/>
       <c r="F506" s="11"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6494,7 +6540,7 @@
       <c r="E507" s="11"/>
       <c r="F507" s="11"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6505,7 +6551,7 @@
       <c r="E508" s="11"/>
       <c r="F508" s="11"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6516,7 +6562,7 @@
       <c r="E509" s="11"/>
       <c r="F509" s="11"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6527,7 +6573,7 @@
       <c r="E510" s="11"/>
       <c r="F510" s="11"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="14" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6538,7 +6584,7 @@
       <c r="E511" s="11"/>
       <c r="F511" s="11"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="14" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6549,7 +6595,7 @@
       <c r="E512" s="11"/>
       <c r="F512" s="11"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="14" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6560,7 +6606,7 @@
       <c r="E513" s="11"/>
       <c r="F513" s="11"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="14" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6571,7 +6617,7 @@
       <c r="E514" s="11"/>
       <c r="F514" s="11"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="14" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6582,7 +6628,7 @@
       <c r="E515" s="11"/>
       <c r="F515" s="11"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6593,7 +6639,7 @@
       <c r="E516" s="11"/>
       <c r="F516" s="11"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6604,7 +6650,7 @@
       <c r="E517" s="11"/>
       <c r="F517" s="11"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6615,7 +6661,7 @@
       <c r="E518" s="11"/>
       <c r="F518" s="11"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="14" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6626,7 +6672,7 @@
       <c r="E519" s="11"/>
       <c r="F519" s="11"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="14" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6637,7 +6683,7 @@
       <c r="E520" s="11"/>
       <c r="F520" s="11"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="14" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6648,7 +6694,7 @@
       <c r="E521" s="11"/>
       <c r="F521" s="11"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6659,7 +6705,7 @@
       <c r="E522" s="11"/>
       <c r="F522" s="11"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6670,7 +6716,7 @@
       <c r="E523" s="11"/>
       <c r="F523" s="11"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6681,7 +6727,7 @@
       <c r="E524" s="11"/>
       <c r="F524" s="11"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="14" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6692,7 +6738,7 @@
       <c r="E525" s="11"/>
       <c r="F525" s="11"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="14" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6703,7 +6749,7 @@
       <c r="E526" s="11"/>
       <c r="F526" s="11"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="14" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6714,7 +6760,7 @@
       <c r="E527" s="11"/>
       <c r="F527" s="11"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="14" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6725,7 +6771,7 @@
       <c r="E528" s="11"/>
       <c r="F528" s="11"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="14" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6736,7 +6782,7 @@
       <c r="E529" s="11"/>
       <c r="F529" s="11"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="14" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6747,7 +6793,7 @@
       <c r="E530" s="11"/>
       <c r="F530" s="11"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="14" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6764,24 +6810,24 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$D$21="Imprévu"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6798,24 +6844,23 @@
     <hyperlink ref="F17" r:id="rId4" xr:uid="{F053DE6A-CBAB-4534-8894-DA5EC5F7F779}"/>
     <hyperlink ref="F20" r:id="rId5" location="14058441" xr:uid="{43179A56-F5C8-4E66-9711-A6B301391286}"/>
     <hyperlink ref="F22" r:id="rId6" location="currency-convert" xr:uid="{6737EA30-0222-4AE0-A6B6-524639736439}"/>
+    <hyperlink ref="F28" r:id="rId7" location="/taskBoard/1289" xr:uid="{DEF45FB5-B402-406C-BC8B-A32E688F2831}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7042,21 +7087,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7081,9 +7125,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C54BDC8-D794-4E51-B021-0CDBD88FDAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEA9CD0-10C9-4AD7-A344-1E7C5ED9D473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -207,6 +207,24 @@
   <si>
     <t>Clean le code, utiliser des fonctions</t>
   </si>
+  <si>
+    <t>Écouter les instructions du professeur. Daily Scrum.</t>
+  </si>
+  <si>
+    <t>Pause pour aller discuter avec mon professeur principal</t>
+  </si>
+  <si>
+    <t>Je reviens lors d'une explication sur PlantUML et IceTools</t>
+  </si>
+  <si>
+    <t>Je recrée une nouvelle maquette papier après discussion avec le professeur car mon application servirait plus à comparer les dépenses militaires entre pays ce qui n'est pas assez montré sur la maquette actuelle.</t>
+  </si>
+  <si>
+    <t>Je crée mes exceptions de filtrage. J'ai des problèmes car je n'utilise pas les valeurs modifiés.</t>
+  </si>
+  <si>
+    <t>Je refactorise mon code</t>
+  </si>
 </sst>
 </file>
 
@@ -268,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -361,6 +385,9 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -693,8 +720,8 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -762,7 +789,7 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(C5:C521)</f>
-        <v>0.6875</v>
+        <v>0.82638888888888873</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -1294,69 +1321,117 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="str">
+      <c r="A31" s="14">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B31" s="9">
+        <v>45576</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="str">
+      <c r="A32" s="14">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B32" s="9">
+        <v>45576</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="str">
+      <c r="A33" s="14">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B33" s="9">
+        <v>45576</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="str">
+    <row r="34" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B34" s="9">
+        <v>45576</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="str">
+      <c r="A35" s="14">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B35" s="9">
+        <v>45576</v>
+      </c>
+      <c r="C35" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="str">
+      <c r="A36" s="14">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B36" s="9">
+        <v>45576</v>
+      </c>
+      <c r="C36" s="10">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6855,12 +6930,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7087,20 +7164,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7125,12 +7203,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\plot-that-lines\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEA9CD0-10C9-4AD7-A344-1E7C5ED9D473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27D8D2E-DD24-480B-9444-163EAECEF457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -225,6 +225,18 @@
   <si>
     <t>Je refactorise mon code</t>
   </si>
+  <si>
+    <t>J'affiche le graphique sur la première page. La maquette ayant changé après discussion avec le professeur car mon code ne permettait pas de comparer des pays entre eux</t>
+  </si>
+  <si>
+    <t>Refactoriser le code. Utilisation de ChatGPT pour refactoriser le code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afficher les points des graphiques sélectionné. </t>
+  </si>
+  <si>
+    <t>J'essaie de convertir une devise en une autre depuis l'api. Pas encore réussi.</t>
+  </si>
 </sst>
 </file>
 
@@ -383,11 +395,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -396,55 +408,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -496,6 +459,55 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -510,7 +522,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -518,14 +530,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="11">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -719,28 +731,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N531"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="91.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="2.875" customWidth="1"/>
+    <col min="14" max="14" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -750,14 +762,14 @@
       </c>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
@@ -783,13 +795,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="21">
         <f>SUM(C5:C521)</f>
-        <v>0.82638888888888873</v>
+        <v>0.97916666666666641</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -801,7 +813,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
@@ -821,7 +833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -842,7 +854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -863,7 +875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -884,7 +896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -905,7 +917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>35</v>
@@ -926,7 +938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>36</v>
@@ -945,7 +957,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>36</v>
@@ -966,7 +978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="62" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>36</v>
@@ -985,7 +997,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -1004,7 +1016,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -1023,7 +1035,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -1042,7 +1054,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>37</v>
@@ -1063,7 +1075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1082,7 +1094,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1101,7 +1113,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1122,7 +1134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1141,7 +1153,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1162,7 +1174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1181,7 +1193,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1200,7 +1212,7 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1221,7 +1233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>39</v>
@@ -1242,7 +1254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>40</v>
@@ -1261,7 +1273,7 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>40</v>
@@ -1282,7 +1294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>40</v>
@@ -1301,7 +1313,7 @@
       </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>40</v>
@@ -1320,7 +1332,7 @@
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>41</v>
@@ -1339,7 +1351,7 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>41</v>
@@ -1350,7 +1362,7 @@
       <c r="C32" s="10">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -1358,7 +1370,7 @@
       </c>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>41</v>
@@ -1377,7 +1389,7 @@
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>41</v>
@@ -1396,7 +1408,7 @@
       </c>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>41</v>
@@ -1415,7 +1427,7 @@
       </c>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>41</v>
@@ -1434,51 +1446,83 @@
       </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="str">
+    <row r="37" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A37" s="14">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B37" s="9">
+        <v>45588</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="str">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="14">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B38" s="9">
+        <v>45588</v>
+      </c>
+      <c r="C38" s="10">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="str">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="14">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B39" s="9">
+        <v>45588</v>
+      </c>
+      <c r="C39" s="10">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="str">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="14">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B40" s="9">
+        <v>45588</v>
+      </c>
+      <c r="C40" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1489,7 +1533,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1500,7 +1544,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1511,7 +1555,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1522,7 +1566,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1533,7 +1577,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1544,7 +1588,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1555,7 +1599,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1566,7 +1610,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1577,7 +1621,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1588,7 +1632,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1599,7 +1643,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1610,7 +1654,7 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1621,7 +1665,7 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1632,7 +1676,7 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1643,7 +1687,7 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1654,7 +1698,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1665,7 +1709,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1676,7 +1720,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1687,7 +1731,7 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1698,7 +1742,7 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1709,7 +1753,7 @@
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1720,7 +1764,7 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1731,7 +1775,7 @@
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1742,7 +1786,7 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1753,7 +1797,7 @@
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1764,7 +1808,7 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1775,7 +1819,7 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1786,7 +1830,7 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1797,7 +1841,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="14" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1808,7 +1852,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1819,7 +1863,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1830,7 +1874,7 @@
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1841,7 +1885,7 @@
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1852,7 +1896,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1863,7 +1907,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1874,7 +1918,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1885,7 +1929,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1896,7 +1940,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1907,7 +1951,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1918,7 +1962,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1929,7 +1973,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1940,7 +1984,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1951,7 +1995,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="14" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1962,7 +2006,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1973,7 +2017,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1984,7 +2028,7 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1995,7 +2039,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="14" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2006,7 +2050,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="14" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2017,7 +2061,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="14" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2028,7 +2072,7 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="14" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2039,7 +2083,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2050,7 +2094,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="14" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2061,7 +2105,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2072,7 +2116,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="14" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2083,7 +2127,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="14" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2094,7 +2138,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="14" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2105,7 +2149,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="14" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2116,7 +2160,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="14" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2127,7 +2171,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="14" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2138,7 +2182,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="14" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2149,7 +2193,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="14" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2160,7 +2204,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="14" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2171,7 +2215,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="14" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2182,7 +2226,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="14" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2193,7 +2237,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="14" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2204,7 +2248,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="14" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2215,7 +2259,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="14" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2226,7 +2270,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="14" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2237,7 +2281,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="14" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2248,7 +2292,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="14" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2259,7 +2303,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="14" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2270,7 +2314,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="14" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2281,7 +2325,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="14" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2292,7 +2336,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="14" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2303,7 +2347,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="14" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2314,7 +2358,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="14" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2325,7 +2369,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="14" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2336,7 +2380,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="14" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2347,7 +2391,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="14" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2358,7 +2402,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="14" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2369,7 +2413,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="14" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2380,7 +2424,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="14" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2391,7 +2435,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="14" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2402,7 +2446,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="14" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2413,7 +2457,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="14" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2424,7 +2468,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="14" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2435,7 +2479,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="14" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2446,7 +2490,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="14" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2457,7 +2501,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="14" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2468,7 +2512,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="14" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2479,7 +2523,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="14" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2490,7 +2534,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="14" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2501,7 +2545,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="14" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2512,7 +2556,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="14" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2523,7 +2567,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="14" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2534,7 +2578,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="14" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2545,7 +2589,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="14" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2556,7 +2600,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="14" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2567,7 +2611,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="14" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2578,7 +2622,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="14" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2589,7 +2633,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="14" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2600,7 +2644,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="14" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2611,7 +2655,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="14" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2622,7 +2666,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="14" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2633,7 +2677,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="14" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2644,7 +2688,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="14" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2655,7 +2699,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="14" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2666,7 +2710,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="14" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2677,7 +2721,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="14" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2688,7 +2732,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="14" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2699,7 +2743,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="14" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2710,7 +2754,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="14" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2721,7 +2765,7 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="14" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2732,7 +2776,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="14" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2743,7 +2787,7 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="14" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2754,7 +2798,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="14" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2765,7 +2809,7 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="14" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2776,7 +2820,7 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="14" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2787,7 +2831,7 @@
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="14" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2798,7 +2842,7 @@
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="14" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2809,7 +2853,7 @@
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="14" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2820,7 +2864,7 @@
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="14" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2831,7 +2875,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="14" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2842,7 +2886,7 @@
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="14" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2853,7 +2897,7 @@
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="14" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2864,7 +2908,7 @@
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="14" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2875,7 +2919,7 @@
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="14" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2886,7 +2930,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="14" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2897,7 +2941,7 @@
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="14" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2908,7 +2952,7 @@
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="14" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2919,7 +2963,7 @@
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="14" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2930,7 +2974,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="14" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2941,7 +2985,7 @@
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="14" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2952,7 +2996,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="14" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2963,7 +3007,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2974,7 +3018,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="14" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2985,7 +3029,7 @@
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2996,7 +3040,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="14" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3007,7 +3051,7 @@
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="14" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3018,7 +3062,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="14" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3029,7 +3073,7 @@
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="14" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3040,7 +3084,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="14" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3051,7 +3095,7 @@
       <c r="E183" s="11"/>
       <c r="F183" s="11"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="14" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3062,7 +3106,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="14" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3073,7 +3117,7 @@
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="14" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3084,7 +3128,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="14" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3095,7 +3139,7 @@
       <c r="E187" s="11"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="14" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3106,7 +3150,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="14" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3117,7 +3161,7 @@
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="14" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3128,7 +3172,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="14" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3139,7 +3183,7 @@
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="14" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3150,7 +3194,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="14" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3161,7 +3205,7 @@
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="14" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3172,7 +3216,7 @@
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="14" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3183,7 +3227,7 @@
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="14" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3194,7 +3238,7 @@
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="14" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3205,7 +3249,7 @@
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="14" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3216,7 +3260,7 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="14" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3227,7 +3271,7 @@
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="14" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3238,7 +3282,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="14" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3249,7 +3293,7 @@
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="14" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3260,7 +3304,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="14" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3271,7 +3315,7 @@
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="14" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3282,7 +3326,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="14" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3293,7 +3337,7 @@
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="14" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3304,7 +3348,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="14" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3315,7 +3359,7 @@
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="14" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3326,7 +3370,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="14" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3337,7 +3381,7 @@
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="14" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3348,7 +3392,7 @@
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="14" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3359,7 +3403,7 @@
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="14" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3370,7 +3414,7 @@
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="14" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3381,7 +3425,7 @@
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="14" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3392,7 +3436,7 @@
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="14" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3403,7 +3447,7 @@
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="14" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3414,7 +3458,7 @@
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="14" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3425,7 +3469,7 @@
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="14" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3436,7 +3480,7 @@
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="14" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3447,7 +3491,7 @@
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="14" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3458,7 +3502,7 @@
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="14" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3469,7 +3513,7 @@
       <c r="E221" s="11"/>
       <c r="F221" s="11"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="14" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3480,7 +3524,7 @@
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="14" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3491,7 +3535,7 @@
       <c r="E223" s="11"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="14" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3502,7 +3546,7 @@
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="14" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3513,7 +3557,7 @@
       <c r="E225" s="11"/>
       <c r="F225" s="11"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="14" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3524,7 +3568,7 @@
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="14" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3535,7 +3579,7 @@
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="14" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3546,7 +3590,7 @@
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="14" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3557,7 +3601,7 @@
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="14" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3568,7 +3612,7 @@
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="14" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3579,7 +3623,7 @@
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="14" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3590,7 +3634,7 @@
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="14" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3601,7 +3645,7 @@
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="14" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3612,7 +3656,7 @@
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="14" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3623,7 +3667,7 @@
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="14" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3634,7 +3678,7 @@
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="14" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3645,7 +3689,7 @@
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="14" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3656,7 +3700,7 @@
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="14" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3667,7 +3711,7 @@
       <c r="E239" s="11"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="14" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3678,7 +3722,7 @@
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="14" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3689,7 +3733,7 @@
       <c r="E241" s="11"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="14" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3700,7 +3744,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="14" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3711,7 +3755,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="14" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3722,7 +3766,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="14" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3733,7 +3777,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="14" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3744,7 +3788,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="14" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3755,7 +3799,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="14" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3766,7 +3810,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="14" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3777,7 +3821,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="14" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3788,7 +3832,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="14" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3799,7 +3843,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="14" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3810,7 +3854,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="14" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3821,7 +3865,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="14" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3832,7 +3876,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="14" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3843,7 +3887,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="14" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3854,7 +3898,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="14" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3865,7 +3909,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="14" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3876,7 +3920,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="14" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3887,7 +3931,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="14" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3898,7 +3942,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="14" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3909,7 +3953,7 @@
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="14" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3920,7 +3964,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="14" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3931,7 +3975,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="14" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3942,7 +3986,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="14" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3953,7 +3997,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="14" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3964,7 +4008,7 @@
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="14" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3975,7 +4019,7 @@
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="14" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3986,7 +4030,7 @@
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="14" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3997,7 +4041,7 @@
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="14" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4008,7 +4052,7 @@
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="14" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4019,7 +4063,7 @@
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="14" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4030,7 +4074,7 @@
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="14" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4041,7 +4085,7 @@
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="14" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4052,7 +4096,7 @@
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="14" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4063,7 +4107,7 @@
       <c r="E275" s="11"/>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="14" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4074,7 +4118,7 @@
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="14" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4085,7 +4129,7 @@
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="14" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4096,7 +4140,7 @@
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="14" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4107,7 +4151,7 @@
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="14" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4118,7 +4162,7 @@
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="14" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4129,7 +4173,7 @@
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="14" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4140,7 +4184,7 @@
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="14" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4151,7 +4195,7 @@
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="14" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4162,7 +4206,7 @@
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="14" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4173,7 +4217,7 @@
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="14" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4184,7 +4228,7 @@
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="14" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4195,7 +4239,7 @@
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="14" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4206,7 +4250,7 @@
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="14" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4217,7 +4261,7 @@
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="14" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4228,7 +4272,7 @@
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="14" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4239,7 +4283,7 @@
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="14" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4250,7 +4294,7 @@
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="14" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4261,7 +4305,7 @@
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="14" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4272,7 +4316,7 @@
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="14" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4283,7 +4327,7 @@
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="14" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4294,7 +4338,7 @@
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="14" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4305,7 +4349,7 @@
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="14" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4316,7 +4360,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="14" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4327,7 +4371,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="14" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4338,7 +4382,7 @@
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="14" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4349,7 +4393,7 @@
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="14" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4360,7 +4404,7 @@
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="14" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4371,7 +4415,7 @@
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="14" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4382,7 +4426,7 @@
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="14" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4393,7 +4437,7 @@
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="14" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4404,7 +4448,7 @@
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="14" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4415,7 +4459,7 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="14" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4426,7 +4470,7 @@
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="14" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4437,7 +4481,7 @@
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="14" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4448,7 +4492,7 @@
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="14" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4459,7 +4503,7 @@
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="14" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4470,7 +4514,7 @@
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="14" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4481,7 +4525,7 @@
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="14" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4492,7 +4536,7 @@
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="14" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4503,7 +4547,7 @@
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="14" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4514,7 +4558,7 @@
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="14" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4525,7 +4569,7 @@
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="14" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4536,7 +4580,7 @@
       <c r="E318" s="11"/>
       <c r="F318" s="11"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="14" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4547,7 +4591,7 @@
       <c r="E319" s="11"/>
       <c r="F319" s="11"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="14" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4558,7 +4602,7 @@
       <c r="E320" s="11"/>
       <c r="F320" s="11"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="14" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4569,7 +4613,7 @@
       <c r="E321" s="11"/>
       <c r="F321" s="11"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="14" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4580,7 +4624,7 @@
       <c r="E322" s="11"/>
       <c r="F322" s="11"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="14" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4591,7 +4635,7 @@
       <c r="E323" s="11"/>
       <c r="F323" s="11"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="14" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4602,7 +4646,7 @@
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="14" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4613,7 +4657,7 @@
       <c r="E325" s="11"/>
       <c r="F325" s="11"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="14" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4624,7 +4668,7 @@
       <c r="E326" s="11"/>
       <c r="F326" s="11"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="14" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4635,7 +4679,7 @@
       <c r="E327" s="11"/>
       <c r="F327" s="11"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="14" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4646,7 +4690,7 @@
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="14" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4657,7 +4701,7 @@
       <c r="E329" s="11"/>
       <c r="F329" s="11"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="14" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4668,7 +4712,7 @@
       <c r="E330" s="11"/>
       <c r="F330" s="11"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="14" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4679,7 +4723,7 @@
       <c r="E331" s="11"/>
       <c r="F331" s="11"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="14" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4690,7 +4734,7 @@
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="14" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4701,7 +4745,7 @@
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="14" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4712,7 +4756,7 @@
       <c r="E334" s="11"/>
       <c r="F334" s="11"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="14" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4723,7 +4767,7 @@
       <c r="E335" s="11"/>
       <c r="F335" s="11"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="14" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4734,7 +4778,7 @@
       <c r="E336" s="11"/>
       <c r="F336" s="11"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="14" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4745,7 +4789,7 @@
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="14" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4756,7 +4800,7 @@
       <c r="E338" s="11"/>
       <c r="F338" s="11"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="14" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4767,7 +4811,7 @@
       <c r="E339" s="11"/>
       <c r="F339" s="11"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="14" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4778,7 +4822,7 @@
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="14" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4789,7 +4833,7 @@
       <c r="E341" s="11"/>
       <c r="F341" s="11"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="14" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4800,7 +4844,7 @@
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="14" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4811,7 +4855,7 @@
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="14" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4822,7 +4866,7 @@
       <c r="E344" s="11"/>
       <c r="F344" s="11"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="14" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4833,7 +4877,7 @@
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="14" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4844,7 +4888,7 @@
       <c r="E346" s="11"/>
       <c r="F346" s="11"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="14" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4855,7 +4899,7 @@
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="14" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4866,7 +4910,7 @@
       <c r="E348" s="11"/>
       <c r="F348" s="11"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="14" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4877,7 +4921,7 @@
       <c r="E349" s="11"/>
       <c r="F349" s="11"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="14" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4888,7 +4932,7 @@
       <c r="E350" s="11"/>
       <c r="F350" s="11"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="14" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4899,7 +4943,7 @@
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="14" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4910,7 +4954,7 @@
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="14" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4921,7 +4965,7 @@
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="14" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4932,7 +4976,7 @@
       <c r="E354" s="11"/>
       <c r="F354" s="11"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="14" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4943,7 +4987,7 @@
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="14" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4954,7 +4998,7 @@
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="14" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4965,7 +5009,7 @@
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="14" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4976,7 +5020,7 @@
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="14" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4987,7 +5031,7 @@
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="14" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4998,7 +5042,7 @@
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="14" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5009,7 +5053,7 @@
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="14" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5020,7 +5064,7 @@
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="14" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5031,7 +5075,7 @@
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="14" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5042,7 +5086,7 @@
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="14" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5053,7 +5097,7 @@
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="14" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5064,7 +5108,7 @@
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="14" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5075,7 +5119,7 @@
       <c r="E367" s="11"/>
       <c r="F367" s="11"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="14" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5086,7 +5130,7 @@
       <c r="E368" s="11"/>
       <c r="F368" s="11"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="14" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5097,7 +5141,7 @@
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="14" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5108,7 +5152,7 @@
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="14" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5119,7 +5163,7 @@
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="14" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5130,7 +5174,7 @@
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="14" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5141,7 +5185,7 @@
       <c r="E373" s="11"/>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="14" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5152,7 +5196,7 @@
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="14" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5163,7 +5207,7 @@
       <c r="E375" s="11"/>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="14" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5174,7 +5218,7 @@
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="14" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5185,7 +5229,7 @@
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="14" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5196,7 +5240,7 @@
       <c r="E378" s="11"/>
       <c r="F378" s="11"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="14" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5207,7 +5251,7 @@
       <c r="E379" s="11"/>
       <c r="F379" s="11"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="14" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5218,7 +5262,7 @@
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="14" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5229,7 +5273,7 @@
       <c r="E381" s="11"/>
       <c r="F381" s="11"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="14" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5240,7 +5284,7 @@
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="14" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5251,7 +5295,7 @@
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="14" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5262,7 +5306,7 @@
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="14" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5273,7 +5317,7 @@
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="14" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5284,7 +5328,7 @@
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="14" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5295,7 +5339,7 @@
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="14" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5306,7 +5350,7 @@
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="14" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5317,7 +5361,7 @@
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="14" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5328,7 +5372,7 @@
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="14" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5339,7 +5383,7 @@
       <c r="E391" s="11"/>
       <c r="F391" s="11"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="14" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5350,7 +5394,7 @@
       <c r="E392" s="11"/>
       <c r="F392" s="11"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="14" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5361,7 +5405,7 @@
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="14" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5372,7 +5416,7 @@
       <c r="E394" s="11"/>
       <c r="F394" s="11"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="14" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5383,7 +5427,7 @@
       <c r="E395" s="11"/>
       <c r="F395" s="11"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="14" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5394,7 +5438,7 @@
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="14" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5405,7 +5449,7 @@
       <c r="E397" s="11"/>
       <c r="F397" s="11"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="14" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5416,7 +5460,7 @@
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="14" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5427,7 +5471,7 @@
       <c r="E399" s="11"/>
       <c r="F399" s="11"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="14" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5438,7 +5482,7 @@
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="14" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5449,7 +5493,7 @@
       <c r="E401" s="11"/>
       <c r="F401" s="11"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="14" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5460,7 +5504,7 @@
       <c r="E402" s="11"/>
       <c r="F402" s="11"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="14" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5471,7 +5515,7 @@
       <c r="E403" s="11"/>
       <c r="F403" s="11"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="14" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5482,7 +5526,7 @@
       <c r="E404" s="11"/>
       <c r="F404" s="11"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="14" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5493,7 +5537,7 @@
       <c r="E405" s="11"/>
       <c r="F405" s="11"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="14" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5504,7 +5548,7 @@
       <c r="E406" s="11"/>
       <c r="F406" s="11"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="14" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5515,7 +5559,7 @@
       <c r="E407" s="11"/>
       <c r="F407" s="11"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="14" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5526,7 +5570,7 @@
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="14" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5537,7 +5581,7 @@
       <c r="E409" s="11"/>
       <c r="F409" s="11"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="14" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5548,7 +5592,7 @@
       <c r="E410" s="11"/>
       <c r="F410" s="11"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="14" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5559,7 +5603,7 @@
       <c r="E411" s="11"/>
       <c r="F411" s="11"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="14" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5570,7 +5614,7 @@
       <c r="E412" s="11"/>
       <c r="F412" s="11"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="14" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5581,7 +5625,7 @@
       <c r="E413" s="11"/>
       <c r="F413" s="11"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="14" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5592,7 +5636,7 @@
       <c r="E414" s="11"/>
       <c r="F414" s="11"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="14" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5603,7 +5647,7 @@
       <c r="E415" s="11"/>
       <c r="F415" s="11"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="14" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5614,7 +5658,7 @@
       <c r="E416" s="11"/>
       <c r="F416" s="11"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="14" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5625,7 +5669,7 @@
       <c r="E417" s="11"/>
       <c r="F417" s="11"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="14" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5636,7 +5680,7 @@
       <c r="E418" s="11"/>
       <c r="F418" s="11"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="14" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5647,7 +5691,7 @@
       <c r="E419" s="11"/>
       <c r="F419" s="11"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="14" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5658,7 +5702,7 @@
       <c r="E420" s="11"/>
       <c r="F420" s="11"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="14" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5669,7 +5713,7 @@
       <c r="E421" s="11"/>
       <c r="F421" s="11"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="14" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5680,7 +5724,7 @@
       <c r="E422" s="11"/>
       <c r="F422" s="11"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="14" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5691,7 +5735,7 @@
       <c r="E423" s="11"/>
       <c r="F423" s="11"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="14" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5702,7 +5746,7 @@
       <c r="E424" s="11"/>
       <c r="F424" s="11"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="14" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5713,7 +5757,7 @@
       <c r="E425" s="11"/>
       <c r="F425" s="11"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="14" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5724,7 +5768,7 @@
       <c r="E426" s="11"/>
       <c r="F426" s="11"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="14" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5735,7 +5779,7 @@
       <c r="E427" s="11"/>
       <c r="F427" s="11"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="14" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5746,7 +5790,7 @@
       <c r="E428" s="11"/>
       <c r="F428" s="11"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="14" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5757,7 +5801,7 @@
       <c r="E429" s="11"/>
       <c r="F429" s="11"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="14" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5768,7 +5812,7 @@
       <c r="E430" s="11"/>
       <c r="F430" s="11"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="14" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5779,7 +5823,7 @@
       <c r="E431" s="11"/>
       <c r="F431" s="11"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="14" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5790,7 +5834,7 @@
       <c r="E432" s="11"/>
       <c r="F432" s="11"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="14" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5801,7 +5845,7 @@
       <c r="E433" s="11"/>
       <c r="F433" s="11"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="14" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5812,7 +5856,7 @@
       <c r="E434" s="11"/>
       <c r="F434" s="11"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="14" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5823,7 +5867,7 @@
       <c r="E435" s="11"/>
       <c r="F435" s="11"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="14" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5834,7 +5878,7 @@
       <c r="E436" s="11"/>
       <c r="F436" s="11"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="14" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5845,7 +5889,7 @@
       <c r="E437" s="11"/>
       <c r="F437" s="11"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="14" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5856,7 +5900,7 @@
       <c r="E438" s="11"/>
       <c r="F438" s="11"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="14" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5867,7 +5911,7 @@
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="14" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5878,7 +5922,7 @@
       <c r="E440" s="11"/>
       <c r="F440" s="11"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="14" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5889,7 +5933,7 @@
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="14" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5900,7 +5944,7 @@
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="14" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5911,7 +5955,7 @@
       <c r="E443" s="11"/>
       <c r="F443" s="11"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="14" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5922,7 +5966,7 @@
       <c r="E444" s="11"/>
       <c r="F444" s="11"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="14" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5933,7 +5977,7 @@
       <c r="E445" s="11"/>
       <c r="F445" s="11"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="14" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5944,7 +5988,7 @@
       <c r="E446" s="11"/>
       <c r="F446" s="11"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="14" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5955,7 +5999,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="11"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="14" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5966,7 +6010,7 @@
       <c r="E448" s="11"/>
       <c r="F448" s="11"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="14" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5977,7 +6021,7 @@
       <c r="E449" s="11"/>
       <c r="F449" s="11"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="14" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5988,7 +6032,7 @@
       <c r="E450" s="11"/>
       <c r="F450" s="11"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="14" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5999,7 +6043,7 @@
       <c r="E451" s="11"/>
       <c r="F451" s="11"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="14" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6010,7 +6054,7 @@
       <c r="E452" s="11"/>
       <c r="F452" s="11"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="14" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6021,7 +6065,7 @@
       <c r="E453" s="11"/>
       <c r="F453" s="11"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="14" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6032,7 +6076,7 @@
       <c r="E454" s="11"/>
       <c r="F454" s="11"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="14" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6043,7 +6087,7 @@
       <c r="E455" s="11"/>
       <c r="F455" s="11"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="14" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6054,7 +6098,7 @@
       <c r="E456" s="11"/>
       <c r="F456" s="11"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="14" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6065,7 +6109,7 @@
       <c r="E457" s="11"/>
       <c r="F457" s="11"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="14" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6076,7 +6120,7 @@
       <c r="E458" s="11"/>
       <c r="F458" s="11"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="14" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6087,7 +6131,7 @@
       <c r="E459" s="11"/>
       <c r="F459" s="11"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="14" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6098,7 +6142,7 @@
       <c r="E460" s="11"/>
       <c r="F460" s="11"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="14" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6109,7 +6153,7 @@
       <c r="E461" s="11"/>
       <c r="F461" s="11"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="14" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6120,7 +6164,7 @@
       <c r="E462" s="11"/>
       <c r="F462" s="11"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="14" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6131,7 +6175,7 @@
       <c r="E463" s="11"/>
       <c r="F463" s="11"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="14" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6142,7 +6186,7 @@
       <c r="E464" s="11"/>
       <c r="F464" s="11"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="14" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6153,7 +6197,7 @@
       <c r="E465" s="11"/>
       <c r="F465" s="11"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="14" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6164,7 +6208,7 @@
       <c r="E466" s="11"/>
       <c r="F466" s="11"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="14" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6175,7 +6219,7 @@
       <c r="E467" s="11"/>
       <c r="F467" s="11"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="14" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6186,7 +6230,7 @@
       <c r="E468" s="11"/>
       <c r="F468" s="11"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="14" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6197,7 +6241,7 @@
       <c r="E469" s="11"/>
       <c r="F469" s="11"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="14" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6208,7 +6252,7 @@
       <c r="E470" s="11"/>
       <c r="F470" s="11"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="14" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6219,7 +6263,7 @@
       <c r="E471" s="11"/>
       <c r="F471" s="11"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="14" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6230,7 +6274,7 @@
       <c r="E472" s="11"/>
       <c r="F472" s="11"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="14" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6241,7 +6285,7 @@
       <c r="E473" s="11"/>
       <c r="F473" s="11"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="14" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6252,7 +6296,7 @@
       <c r="E474" s="11"/>
       <c r="F474" s="11"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="14" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6263,7 +6307,7 @@
       <c r="E475" s="11"/>
       <c r="F475" s="11"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="14" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6274,7 +6318,7 @@
       <c r="E476" s="11"/>
       <c r="F476" s="11"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="14" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6285,7 +6329,7 @@
       <c r="E477" s="11"/>
       <c r="F477" s="11"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="14" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6296,7 +6340,7 @@
       <c r="E478" s="11"/>
       <c r="F478" s="11"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="14" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6307,7 +6351,7 @@
       <c r="E479" s="11"/>
       <c r="F479" s="11"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="14" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6318,7 +6362,7 @@
       <c r="E480" s="11"/>
       <c r="F480" s="11"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="14" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6329,7 +6373,7 @@
       <c r="E481" s="11"/>
       <c r="F481" s="11"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="14" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6340,7 +6384,7 @@
       <c r="E482" s="11"/>
       <c r="F482" s="11"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="14" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6351,7 +6395,7 @@
       <c r="E483" s="11"/>
       <c r="F483" s="11"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="14" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6362,7 +6406,7 @@
       <c r="E484" s="11"/>
       <c r="F484" s="11"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="14" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6373,7 +6417,7 @@
       <c r="E485" s="11"/>
       <c r="F485" s="11"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="14" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6384,7 +6428,7 @@
       <c r="E486" s="11"/>
       <c r="F486" s="11"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="14" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6395,7 +6439,7 @@
       <c r="E487" s="11"/>
       <c r="F487" s="11"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="14" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6406,7 +6450,7 @@
       <c r="E488" s="11"/>
       <c r="F488" s="11"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="14" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6417,7 +6461,7 @@
       <c r="E489" s="11"/>
       <c r="F489" s="11"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="14" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6428,7 +6472,7 @@
       <c r="E490" s="11"/>
       <c r="F490" s="11"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="14" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6439,7 +6483,7 @@
       <c r="E491" s="11"/>
       <c r="F491" s="11"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="14" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6450,7 +6494,7 @@
       <c r="E492" s="11"/>
       <c r="F492" s="11"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="14" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6461,7 +6505,7 @@
       <c r="E493" s="11"/>
       <c r="F493" s="11"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="14" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6472,7 +6516,7 @@
       <c r="E494" s="11"/>
       <c r="F494" s="11"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="14" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6483,7 +6527,7 @@
       <c r="E495" s="11"/>
       <c r="F495" s="11"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="14" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6494,7 +6538,7 @@
       <c r="E496" s="11"/>
       <c r="F496" s="11"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="14" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6505,7 +6549,7 @@
       <c r="E497" s="11"/>
       <c r="F497" s="11"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="14" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6516,7 +6560,7 @@
       <c r="E498" s="11"/>
       <c r="F498" s="11"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="14" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6527,7 +6571,7 @@
       <c r="E499" s="11"/>
       <c r="F499" s="11"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="14" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6538,7 +6582,7 @@
       <c r="E500" s="11"/>
       <c r="F500" s="11"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="14" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6549,7 +6593,7 @@
       <c r="E501" s="11"/>
       <c r="F501" s="11"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="14" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6560,7 +6604,7 @@
       <c r="E502" s="11"/>
       <c r="F502" s="11"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="14" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6571,7 +6615,7 @@
       <c r="E503" s="11"/>
       <c r="F503" s="11"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="14" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6582,7 +6626,7 @@
       <c r="E504" s="11"/>
       <c r="F504" s="11"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="14" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6593,7 +6637,7 @@
       <c r="E505" s="11"/>
       <c r="F505" s="11"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="14" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6604,7 +6648,7 @@
       <c r="E506" s="11"/>
       <c r="F506" s="11"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="14" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6615,7 +6659,7 @@
       <c r="E507" s="11"/>
       <c r="F507" s="11"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="14" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6626,7 +6670,7 @@
       <c r="E508" s="11"/>
       <c r="F508" s="11"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="14" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6637,7 +6681,7 @@
       <c r="E509" s="11"/>
       <c r="F509" s="11"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="14" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6648,7 +6692,7 @@
       <c r="E510" s="11"/>
       <c r="F510" s="11"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="14" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6659,7 +6703,7 @@
       <c r="E511" s="11"/>
       <c r="F511" s="11"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="14" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6670,7 +6714,7 @@
       <c r="E512" s="11"/>
       <c r="F512" s="11"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="14" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6681,7 +6725,7 @@
       <c r="E513" s="11"/>
       <c r="F513" s="11"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="14" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6692,7 +6736,7 @@
       <c r="E514" s="11"/>
       <c r="F514" s="11"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="14" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6703,7 +6747,7 @@
       <c r="E515" s="11"/>
       <c r="F515" s="11"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="14" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6714,7 +6758,7 @@
       <c r="E516" s="11"/>
       <c r="F516" s="11"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="14" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6725,7 +6769,7 @@
       <c r="E517" s="11"/>
       <c r="F517" s="11"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="14" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6736,7 +6780,7 @@
       <c r="E518" s="11"/>
       <c r="F518" s="11"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="14" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6747,7 +6791,7 @@
       <c r="E519" s="11"/>
       <c r="F519" s="11"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="14" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6758,7 +6802,7 @@
       <c r="E520" s="11"/>
       <c r="F520" s="11"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="14" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6769,7 +6813,7 @@
       <c r="E521" s="11"/>
       <c r="F521" s="11"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="14" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6780,7 +6824,7 @@
       <c r="E522" s="11"/>
       <c r="F522" s="11"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="14" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6791,7 +6835,7 @@
       <c r="E523" s="11"/>
       <c r="F523" s="11"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="14" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6802,7 +6846,7 @@
       <c r="E524" s="11"/>
       <c r="F524" s="11"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="14" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6813,7 +6857,7 @@
       <c r="E525" s="11"/>
       <c r="F525" s="11"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="14" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6824,7 +6868,7 @@
       <c r="E526" s="11"/>
       <c r="F526" s="11"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="14" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6835,7 +6879,7 @@
       <c r="E527" s="11"/>
       <c r="F527" s="11"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="14" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6846,7 +6890,7 @@
       <c r="E528" s="11"/>
       <c r="F528" s="11"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="14" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6857,7 +6901,7 @@
       <c r="E529" s="11"/>
       <c r="F529" s="11"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="14" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6868,7 +6912,7 @@
       <c r="E530" s="11"/>
       <c r="F530" s="11"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="14" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6885,24 +6929,24 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D$21="Imprévu"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6941,6 +6985,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7163,15 +7216,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
@@ -7184,6 +7228,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7200,12 +7252,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27D8D2E-DD24-480B-9444-163EAECEF457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAFB972-B895-4223-93A6-DE9E84B22670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>J'essaie de convertir une devise en une autre depuis l'api. Pas encore réussi.</t>
+  </si>
+  <si>
+    <t>J'avance dans le rapport à fournir.</t>
+  </si>
+  <si>
+    <t>J'essaie de créer un projet de test, j'avais des erreurs de compatibilité.</t>
+  </si>
+  <si>
+    <t>Je crée les tests unitaires, je m'aide de ChatGPT pour qu'il m'aide à identifier tous les points à tester (je n'avais pas pensé à tester des valeurs incorrect, etc)</t>
+  </si>
+  <si>
+    <t>J'analyse mon code, je corrige une erreur et je réfléchi à comment le rendre plus simple et plus lisible</t>
   </si>
 </sst>
 </file>
@@ -731,9 +743,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -801,7 +813,7 @@
       </c>
       <c r="C3" s="21">
         <f>SUM(C5:C521)</f>
-        <v>0.97916666666666641</v>
+        <v>1.1111111111111107</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -1523,58 +1535,98 @@
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="str">
+      <c r="A41" s="14">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B41" s="9">
+        <v>45589</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="str">
+      <c r="A42" s="14">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B42" s="9">
+        <v>45589</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="str">
+    <row r="43" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A43" s="14">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B43" s="9">
+        <v>45589</v>
+      </c>
+      <c r="C43" s="10">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="str">
+      <c r="A44" s="14">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="9">
+        <v>45589</v>
+      </c>
+      <c r="C44" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="str">
+      <c r="A45" s="14">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="9">
+        <v>45589</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">

--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAFB972-B895-4223-93A6-DE9E84B22670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C0EC7D-BDF3-43F9-BCED-4F52B48B94FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Auteur:</t>
-  </si>
-  <si>
-    <t>Berchel joachim</t>
   </si>
   <si>
     <t>P_FUN</t>
@@ -249,13 +246,17 @@
   <si>
     <t>J'analyse mon code, je corrige une erreur et je réfléchi à comment le rendre plus simple et plus lisible</t>
   </si>
+  <si>
+    <t>Berchel Joachim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="[hh]:mm:ss"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -388,7 +389,6 @@
     <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -398,9 +398,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -414,6 +411,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -744,8 +745,8 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -778,18 +779,18 @@
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="28"/>
+      <c r="C2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="26"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -811,8 +812,8 @@
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="21">
-        <f>SUM(C5:C521)</f>
+      <c r="C3" s="28">
+        <f>SUM(C6:C521)</f>
         <v>1.1111111111111107</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -853,17 +854,17 @@
       <c r="B6" s="9">
         <v>45534</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="27">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>19</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -874,17 +875,17 @@
       <c r="B7" s="9">
         <v>45534</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="27">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="31" x14ac:dyDescent="0.35">
@@ -895,17 +896,17 @@
       <c r="B8" s="9">
         <v>45534</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -916,17 +917,17 @@
       <c r="B9" s="9">
         <v>45534</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -937,17 +938,17 @@
       <c r="B10" s="9">
         <v>45534</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -958,14 +959,14 @@
       <c r="B11" s="9">
         <v>45541</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="27">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="11"/>
     </row>
@@ -977,17 +978,17 @@
       <c r="B12" s="9">
         <v>45541</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="62" x14ac:dyDescent="0.35">
@@ -998,14 +999,14 @@
       <c r="B13" s="9">
         <v>45541</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>32</v>
+      <c r="E13" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -1017,14 +1018,14 @@
       <c r="B14" s="9">
         <v>45548</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="27">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="11"/>
     </row>
@@ -1036,14 +1037,14 @@
       <c r="B15" s="9">
         <v>45548</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="27">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="11"/>
     </row>
@@ -1055,14 +1056,14 @@
       <c r="B16" s="9">
         <v>45548</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="27">
         <v>3.125E-2</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="11"/>
     </row>
@@ -1074,17 +1075,17 @@
       <c r="B17" s="9">
         <v>45548</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="27">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="24" t="s">
+      <c r="E17" s="21" t="s">
         <v>36</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1095,14 +1096,14 @@
       <c r="B18" s="9">
         <v>45562</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="27">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -1114,14 +1115,14 @@
       <c r="B19" s="9">
         <v>45562</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="27">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -1133,17 +1134,17 @@
       <c r="B20" s="9">
         <v>45562</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="27">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="24" t="s">
+      <c r="E20" s="21" t="s">
         <v>40</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1154,14 +1155,14 @@
       <c r="B21" s="9">
         <v>45562</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="27">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="F21" s="11"/>
     </row>
@@ -1173,17 +1174,17 @@
       <c r="B22" s="9">
         <v>45562</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="27">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1194,14 +1195,14 @@
       <c r="B23" s="9">
         <v>45562</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="27">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -1213,14 +1214,14 @@
       <c r="B24" s="9">
         <v>45562</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="27">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="11"/>
     </row>
@@ -1232,17 +1233,17 @@
       <c r="B25" s="9">
         <v>45563</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="27">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1253,17 +1254,17 @@
       <c r="B26" s="9">
         <v>45563</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="27">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="31" x14ac:dyDescent="0.35">
@@ -1274,14 +1275,14 @@
       <c r="B27" s="9">
         <v>45569</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="27">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>51</v>
+      <c r="E27" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="F27" s="11"/>
     </row>
@@ -1293,17 +1294,17 @@
       <c r="B28" s="9">
         <v>45569</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="27">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>28</v>
+      <c r="E28" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
@@ -1314,14 +1315,14 @@
       <c r="B29" s="9">
         <v>45569</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="27">
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>53</v>
+      <c r="E29" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="F29" s="11"/>
     </row>
@@ -1333,14 +1334,14 @@
       <c r="B30" s="9">
         <v>45569</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="27">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="11"/>
     </row>
@@ -1352,14 +1353,14 @@
       <c r="B31" s="9">
         <v>45576</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="27">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="11"/>
     </row>
@@ -1371,14 +1372,14 @@
       <c r="B32" s="9">
         <v>45576</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="27">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>42</v>
+      <c r="D32" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="11"/>
     </row>
@@ -1390,14 +1391,14 @@
       <c r="B33" s="9">
         <v>45576</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="27">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="11"/>
     </row>
@@ -1409,14 +1410,14 @@
       <c r="B34" s="9">
         <v>45576</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="27">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>58</v>
+      <c r="E34" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="F34" s="11"/>
     </row>
@@ -1428,14 +1429,14 @@
       <c r="B35" s="9">
         <v>45576</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" s="11"/>
     </row>
@@ -1447,14 +1448,14 @@
       <c r="B36" s="9">
         <v>45576</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="27">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="11"/>
     </row>
@@ -1466,14 +1467,14 @@
       <c r="B37" s="9">
         <v>45588</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="27">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>61</v>
+      <c r="E37" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="F37" s="11"/>
     </row>
@@ -1485,14 +1486,14 @@
       <c r="B38" s="9">
         <v>45588</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="27">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F38" s="11"/>
     </row>
@@ -1504,14 +1505,14 @@
       <c r="B39" s="9">
         <v>45588</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="27">
         <v>6.9444444444444448E-2</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39" s="11"/>
     </row>
@@ -1523,14 +1524,14 @@
       <c r="B40" s="9">
         <v>45588</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="27">
         <v>6.25E-2</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F40" s="11"/>
     </row>
@@ -1542,14 +1543,14 @@
       <c r="B41" s="9">
         <v>45589</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="27">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="11"/>
     </row>
@@ -1561,14 +1562,14 @@
       <c r="B42" s="9">
         <v>45589</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="27">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" s="11"/>
     </row>
@@ -1580,14 +1581,14 @@
       <c r="B43" s="9">
         <v>45589</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="27">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="22" t="s">
-        <v>67</v>
+      <c r="E43" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="F43" s="11"/>
     </row>
@@ -1599,14 +1600,14 @@
       <c r="B44" s="9">
         <v>45589</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" s="11"/>
     </row>
@@ -1618,14 +1619,14 @@
       <c r="B45" s="9">
         <v>45589</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="27">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F45" s="11"/>
     </row>
@@ -1635,7 +1636,7 @@
         <v/>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -1646,7 +1647,7 @@
         <v/>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -1657,7 +1658,7 @@
         <v/>
       </c>
       <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -1668,7 +1669,7 @@
         <v/>
       </c>
       <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -1679,7 +1680,7 @@
         <v/>
       </c>
       <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -1690,7 +1691,7 @@
         <v/>
       </c>
       <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -1701,7 +1702,7 @@
         <v/>
       </c>
       <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -1712,7 +1713,7 @@
         <v/>
       </c>
       <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
@@ -1723,7 +1724,7 @@
         <v/>
       </c>
       <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -1734,7 +1735,7 @@
         <v/>
       </c>
       <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -1745,7 +1746,7 @@
         <v/>
       </c>
       <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -1756,7 +1757,7 @@
         <v/>
       </c>
       <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -1767,7 +1768,7 @@
         <v/>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -1778,7 +1779,7 @@
         <v/>
       </c>
       <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
@@ -1789,7 +1790,7 @@
         <v/>
       </c>
       <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
@@ -1800,7 +1801,7 @@
         <v/>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
@@ -1811,7 +1812,7 @@
         <v/>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
@@ -1822,7 +1823,7 @@
         <v/>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -1833,7 +1834,7 @@
         <v/>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
@@ -1844,7 +1845,7 @@
         <v/>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
@@ -1855,7 +1856,7 @@
         <v/>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
+      <c r="C66" s="27"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
@@ -1866,7 +1867,7 @@
         <v/>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="10"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
@@ -1877,7 +1878,7 @@
         <v/>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="10"/>
+      <c r="C68" s="27"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -1888,7 +1889,7 @@
         <v/>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="10"/>
+      <c r="C69" s="27"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
@@ -1899,7 +1900,7 @@
         <v/>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -1910,7 +1911,7 @@
         <v/>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
+      <c r="C71" s="27"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
@@ -1921,7 +1922,7 @@
         <v/>
       </c>
       <c r="B72" s="9"/>
-      <c r="C72" s="10"/>
+      <c r="C72" s="27"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -1932,7 +1933,7 @@
         <v/>
       </c>
       <c r="B73" s="9"/>
-      <c r="C73" s="10"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
@@ -1943,7 +1944,7 @@
         <v/>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
@@ -1954,7 +1955,7 @@
         <v/>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="10"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -1965,7 +1966,7 @@
         <v/>
       </c>
       <c r="B76" s="9"/>
-      <c r="C76" s="10"/>
+      <c r="C76" s="27"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
@@ -1976,7 +1977,7 @@
         <v/>
       </c>
       <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
@@ -1987,7 +1988,7 @@
         <v/>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="10"/>
+      <c r="C78" s="27"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
@@ -1998,7 +1999,7 @@
         <v/>
       </c>
       <c r="B79" s="9"/>
-      <c r="C79" s="10"/>
+      <c r="C79" s="27"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -2009,7 +2010,7 @@
         <v/>
       </c>
       <c r="B80" s="9"/>
-      <c r="C80" s="10"/>
+      <c r="C80" s="27"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
@@ -2020,7 +2021,7 @@
         <v/>
       </c>
       <c r="B81" s="9"/>
-      <c r="C81" s="10"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
@@ -2031,7 +2032,7 @@
         <v/>
       </c>
       <c r="B82" s="9"/>
-      <c r="C82" s="10"/>
+      <c r="C82" s="27"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -2042,7 +2043,7 @@
         <v/>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="10"/>
+      <c r="C83" s="27"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -2053,7 +2054,7 @@
         <v/>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="10"/>
+      <c r="C84" s="27"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -2064,7 +2065,7 @@
         <v/>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="10"/>
+      <c r="C85" s="27"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
@@ -2075,7 +2076,7 @@
         <v/>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="10"/>
+      <c r="C86" s="27"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -2086,7 +2087,7 @@
         <v/>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="10"/>
+      <c r="C87" s="27"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
@@ -2097,7 +2098,7 @@
         <v/>
       </c>
       <c r="B88" s="9"/>
-      <c r="C88" s="10"/>
+      <c r="C88" s="27"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -2108,7 +2109,7 @@
         <v/>
       </c>
       <c r="B89" s="9"/>
-      <c r="C89" s="10"/>
+      <c r="C89" s="27"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
@@ -2119,7 +2120,7 @@
         <v/>
       </c>
       <c r="B90" s="9"/>
-      <c r="C90" s="10"/>
+      <c r="C90" s="27"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
@@ -2130,7 +2131,7 @@
         <v/>
       </c>
       <c r="B91" s="9"/>
-      <c r="C91" s="10"/>
+      <c r="C91" s="27"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -2141,7 +2142,7 @@
         <v/>
       </c>
       <c r="B92" s="9"/>
-      <c r="C92" s="10"/>
+      <c r="C92" s="27"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
@@ -2152,7 +2153,7 @@
         <v/>
       </c>
       <c r="B93" s="9"/>
-      <c r="C93" s="10"/>
+      <c r="C93" s="27"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
@@ -2163,7 +2164,7 @@
         <v/>
       </c>
       <c r="B94" s="9"/>
-      <c r="C94" s="10"/>
+      <c r="C94" s="27"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
@@ -2174,7 +2175,7 @@
         <v/>
       </c>
       <c r="B95" s="9"/>
-      <c r="C95" s="10"/>
+      <c r="C95" s="27"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
@@ -2185,7 +2186,7 @@
         <v/>
       </c>
       <c r="B96" s="9"/>
-      <c r="C96" s="10"/>
+      <c r="C96" s="27"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
@@ -2196,7 +2197,7 @@
         <v/>
       </c>
       <c r="B97" s="9"/>
-      <c r="C97" s="10"/>
+      <c r="C97" s="27"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
@@ -2207,7 +2208,7 @@
         <v/>
       </c>
       <c r="B98" s="9"/>
-      <c r="C98" s="10"/>
+      <c r="C98" s="27"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
@@ -2218,7 +2219,7 @@
         <v/>
       </c>
       <c r="B99" s="9"/>
-      <c r="C99" s="10"/>
+      <c r="C99" s="27"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
@@ -2229,7 +2230,7 @@
         <v/>
       </c>
       <c r="B100" s="9"/>
-      <c r="C100" s="10"/>
+      <c r="C100" s="27"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
@@ -2240,7 +2241,7 @@
         <v/>
       </c>
       <c r="B101" s="9"/>
-      <c r="C101" s="10"/>
+      <c r="C101" s="27"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -2251,7 +2252,7 @@
         <v/>
       </c>
       <c r="B102" s="9"/>
-      <c r="C102" s="10"/>
+      <c r="C102" s="27"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
@@ -2262,7 +2263,7 @@
         <v/>
       </c>
       <c r="B103" s="9"/>
-      <c r="C103" s="10"/>
+      <c r="C103" s="27"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
@@ -2273,7 +2274,7 @@
         <v/>
       </c>
       <c r="B104" s="9"/>
-      <c r="C104" s="10"/>
+      <c r="C104" s="27"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
@@ -2284,7 +2285,7 @@
         <v/>
       </c>
       <c r="B105" s="9"/>
-      <c r="C105" s="10"/>
+      <c r="C105" s="27"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
@@ -2295,7 +2296,7 @@
         <v/>
       </c>
       <c r="B106" s="9"/>
-      <c r="C106" s="10"/>
+      <c r="C106" s="27"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
@@ -2306,7 +2307,7 @@
         <v/>
       </c>
       <c r="B107" s="9"/>
-      <c r="C107" s="10"/>
+      <c r="C107" s="27"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
@@ -2317,7 +2318,7 @@
         <v/>
       </c>
       <c r="B108" s="9"/>
-      <c r="C108" s="10"/>
+      <c r="C108" s="27"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
@@ -2328,7 +2329,7 @@
         <v/>
       </c>
       <c r="B109" s="9"/>
-      <c r="C109" s="10"/>
+      <c r="C109" s="27"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
@@ -2339,7 +2340,7 @@
         <v/>
       </c>
       <c r="B110" s="9"/>
-      <c r="C110" s="10"/>
+      <c r="C110" s="27"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
@@ -2350,7 +2351,7 @@
         <v/>
       </c>
       <c r="B111" s="9"/>
-      <c r="C111" s="10"/>
+      <c r="C111" s="27"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
@@ -2361,7 +2362,7 @@
         <v/>
       </c>
       <c r="B112" s="9"/>
-      <c r="C112" s="10"/>
+      <c r="C112" s="27"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -2372,7 +2373,7 @@
         <v/>
       </c>
       <c r="B113" s="9"/>
-      <c r="C113" s="10"/>
+      <c r="C113" s="27"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
@@ -2383,7 +2384,7 @@
         <v/>
       </c>
       <c r="B114" s="9"/>
-      <c r="C114" s="10"/>
+      <c r="C114" s="27"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
@@ -2394,7 +2395,7 @@
         <v/>
       </c>
       <c r="B115" s="9"/>
-      <c r="C115" s="10"/>
+      <c r="C115" s="27"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
@@ -2405,7 +2406,7 @@
         <v/>
       </c>
       <c r="B116" s="9"/>
-      <c r="C116" s="10"/>
+      <c r="C116" s="27"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
@@ -2416,7 +2417,7 @@
         <v/>
       </c>
       <c r="B117" s="9"/>
-      <c r="C117" s="10"/>
+      <c r="C117" s="27"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
@@ -2427,7 +2428,7 @@
         <v/>
       </c>
       <c r="B118" s="9"/>
-      <c r="C118" s="10"/>
+      <c r="C118" s="27"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
@@ -2438,7 +2439,7 @@
         <v/>
       </c>
       <c r="B119" s="9"/>
-      <c r="C119" s="10"/>
+      <c r="C119" s="27"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
@@ -2449,7 +2450,7 @@
         <v/>
       </c>
       <c r="B120" s="9"/>
-      <c r="C120" s="10"/>
+      <c r="C120" s="27"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
@@ -2460,7 +2461,7 @@
         <v/>
       </c>
       <c r="B121" s="9"/>
-      <c r="C121" s="10"/>
+      <c r="C121" s="27"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
@@ -2471,7 +2472,7 @@
         <v/>
       </c>
       <c r="B122" s="9"/>
-      <c r="C122" s="10"/>
+      <c r="C122" s="27"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
@@ -2482,7 +2483,7 @@
         <v/>
       </c>
       <c r="B123" s="9"/>
-      <c r="C123" s="10"/>
+      <c r="C123" s="27"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
@@ -2493,7 +2494,7 @@
         <v/>
       </c>
       <c r="B124" s="9"/>
-      <c r="C124" s="10"/>
+      <c r="C124" s="27"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
@@ -2504,7 +2505,7 @@
         <v/>
       </c>
       <c r="B125" s="9"/>
-      <c r="C125" s="10"/>
+      <c r="C125" s="27"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
@@ -2515,7 +2516,7 @@
         <v/>
       </c>
       <c r="B126" s="9"/>
-      <c r="C126" s="10"/>
+      <c r="C126" s="27"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
@@ -2526,7 +2527,7 @@
         <v/>
       </c>
       <c r="B127" s="9"/>
-      <c r="C127" s="10"/>
+      <c r="C127" s="27"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
@@ -2537,7 +2538,7 @@
         <v/>
       </c>
       <c r="B128" s="9"/>
-      <c r="C128" s="10"/>
+      <c r="C128" s="27"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
@@ -2548,7 +2549,7 @@
         <v/>
       </c>
       <c r="B129" s="9"/>
-      <c r="C129" s="10"/>
+      <c r="C129" s="27"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
@@ -2559,7 +2560,7 @@
         <v/>
       </c>
       <c r="B130" s="9"/>
-      <c r="C130" s="10"/>
+      <c r="C130" s="27"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
@@ -2570,7 +2571,7 @@
         <v/>
       </c>
       <c r="B131" s="9"/>
-      <c r="C131" s="10"/>
+      <c r="C131" s="27"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
@@ -2581,7 +2582,7 @@
         <v/>
       </c>
       <c r="B132" s="9"/>
-      <c r="C132" s="10"/>
+      <c r="C132" s="27"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
@@ -2592,7 +2593,7 @@
         <v/>
       </c>
       <c r="B133" s="9"/>
-      <c r="C133" s="10"/>
+      <c r="C133" s="27"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
@@ -2603,7 +2604,7 @@
         <v/>
       </c>
       <c r="B134" s="9"/>
-      <c r="C134" s="10"/>
+      <c r="C134" s="27"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
@@ -2614,7 +2615,7 @@
         <v/>
       </c>
       <c r="B135" s="9"/>
-      <c r="C135" s="10"/>
+      <c r="C135" s="27"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
@@ -2625,7 +2626,7 @@
         <v/>
       </c>
       <c r="B136" s="9"/>
-      <c r="C136" s="10"/>
+      <c r="C136" s="27"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
@@ -2636,7 +2637,7 @@
         <v/>
       </c>
       <c r="B137" s="9"/>
-      <c r="C137" s="10"/>
+      <c r="C137" s="27"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
@@ -2647,7 +2648,7 @@
         <v/>
       </c>
       <c r="B138" s="9"/>
-      <c r="C138" s="10"/>
+      <c r="C138" s="27"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
@@ -2658,7 +2659,7 @@
         <v/>
       </c>
       <c r="B139" s="9"/>
-      <c r="C139" s="10"/>
+      <c r="C139" s="27"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
@@ -2669,7 +2670,7 @@
         <v/>
       </c>
       <c r="B140" s="9"/>
-      <c r="C140" s="10"/>
+      <c r="C140" s="27"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
@@ -2680,7 +2681,7 @@
         <v/>
       </c>
       <c r="B141" s="9"/>
-      <c r="C141" s="10"/>
+      <c r="C141" s="27"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
@@ -2691,7 +2692,7 @@
         <v/>
       </c>
       <c r="B142" s="9"/>
-      <c r="C142" s="10"/>
+      <c r="C142" s="27"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
@@ -2702,7 +2703,7 @@
         <v/>
       </c>
       <c r="B143" s="9"/>
-      <c r="C143" s="10"/>
+      <c r="C143" s="27"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
@@ -2713,7 +2714,7 @@
         <v/>
       </c>
       <c r="B144" s="9"/>
-      <c r="C144" s="10"/>
+      <c r="C144" s="27"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
@@ -2724,7 +2725,7 @@
         <v/>
       </c>
       <c r="B145" s="9"/>
-      <c r="C145" s="10"/>
+      <c r="C145" s="27"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
@@ -2735,7 +2736,7 @@
         <v/>
       </c>
       <c r="B146" s="9"/>
-      <c r="C146" s="10"/>
+      <c r="C146" s="27"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>

--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C0EC7D-BDF3-43F9-BCED-4F52B48B94FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5208CC5-861B-40E4-9EBA-27BB43C301DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -199,9 +199,6 @@
     <t>De par les informations données par le professeur j'ai modifié mon rapport et mon IceScrum. Je n'avais pas fait attention au fait que le filtre par date soit obligatoire et j'ai donc dû le rajouter dans mes user story et mes test d'acceptance</t>
   </si>
   <si>
-    <t>J'ai eu des difficultés a accéder à certaines variables. J'ai essayé d'utiliser des fonctions de ScottPlot, au final j'ai demandé à Tiago comment il avait fait et j'ai décidé de vider mes points puis de les réafficher</t>
-  </si>
-  <si>
     <t>Clean le code, utiliser des fonctions</t>
   </si>
   <si>
@@ -249,6 +246,18 @@
   <si>
     <t>Berchel Joachim</t>
   </si>
+  <si>
+    <t>J'utilise l'API pour convertir mes données.</t>
+  </si>
+  <si>
+    <t>Il y a une limite de requête quotidienne à l'API et pour afficher un graphique il y a entre 1 et 64 requête à effectuer.</t>
+  </si>
+  <si>
+    <t>J'ai eu des difficultés a accéder à certaines variables pour la fonction de tri. J'ai essayé d'utiliser des fonctions de ScottPlot, au final j'ai demandé à Tiago comment il avait fait et j'ai décidé de vider mes points puis de les réafficher.</t>
+  </si>
+  <si>
+    <t>J'avance dans le rapport à fournir. Il ne reste plue que le IceScrub.</t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +265,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="[hh]:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[hh]:mm:ss"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -407,14 +416,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -744,9 +753,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N531"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -779,10 +788,10 @@
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="26"/>
+      <c r="C2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="28"/>
       <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
@@ -812,9 +821,9 @@
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <f>SUM(C6:C521)</f>
-        <v>1.1111111111111107</v>
+        <v>1.2152777777777775</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -854,7 +863,7 @@
       <c r="B6" s="9">
         <v>45534</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -875,7 +884,7 @@
       <c r="B7" s="9">
         <v>45534</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -896,7 +905,7 @@
       <c r="B8" s="9">
         <v>45534</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -917,7 +926,7 @@
       <c r="B9" s="9">
         <v>45534</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -938,7 +947,7 @@
       <c r="B10" s="9">
         <v>45534</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -959,7 +968,7 @@
       <c r="B11" s="9">
         <v>45541</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -978,7 +987,7 @@
       <c r="B12" s="9">
         <v>45541</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -999,7 +1008,7 @@
       <c r="B13" s="9">
         <v>45541</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -1018,7 +1027,7 @@
       <c r="B14" s="9">
         <v>45548</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -1037,7 +1046,7 @@
       <c r="B15" s="9">
         <v>45548</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -1056,7 +1065,7 @@
       <c r="B16" s="9">
         <v>45548</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>3.125E-2</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -1075,7 +1084,7 @@
       <c r="B17" s="9">
         <v>45548</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -1096,7 +1105,7 @@
       <c r="B18" s="9">
         <v>45562</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -1115,7 +1124,7 @@
       <c r="B19" s="9">
         <v>45562</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -1134,7 +1143,7 @@
       <c r="B20" s="9">
         <v>45562</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1155,7 +1164,7 @@
       <c r="B21" s="9">
         <v>45562</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -1174,7 +1183,7 @@
       <c r="B22" s="9">
         <v>45562</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -1195,7 +1204,7 @@
       <c r="B23" s="9">
         <v>45562</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1214,7 +1223,7 @@
       <c r="B24" s="9">
         <v>45562</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -1233,7 +1242,7 @@
       <c r="B25" s="9">
         <v>45563</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -1254,7 +1263,7 @@
       <c r="B26" s="9">
         <v>45563</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -1275,7 +1284,7 @@
       <c r="B27" s="9">
         <v>45569</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -1294,7 +1303,7 @@
       <c r="B28" s="9">
         <v>45569</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="26">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -1315,14 +1324,14 @@
       <c r="B29" s="9">
         <v>45569</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="26">
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F29" s="11"/>
     </row>
@@ -1334,14 +1343,14 @@
       <c r="B30" s="9">
         <v>45569</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="11"/>
     </row>
@@ -1353,14 +1362,14 @@
       <c r="B31" s="9">
         <v>45576</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="26">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="11"/>
     </row>
@@ -1372,14 +1381,14 @@
       <c r="B32" s="9">
         <v>45576</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="26">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="11"/>
     </row>
@@ -1391,14 +1400,14 @@
       <c r="B33" s="9">
         <v>45576</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="26">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="11"/>
     </row>
@@ -1410,14 +1419,14 @@
       <c r="B34" s="9">
         <v>45576</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="26">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" s="11"/>
     </row>
@@ -1429,14 +1438,14 @@
       <c r="B35" s="9">
         <v>45576</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="26">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" s="11"/>
     </row>
@@ -1448,14 +1457,14 @@
       <c r="B36" s="9">
         <v>45576</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="26">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F36" s="11"/>
     </row>
@@ -1467,14 +1476,14 @@
       <c r="B37" s="9">
         <v>45588</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="26">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="11"/>
     </row>
@@ -1486,14 +1495,14 @@
       <c r="B38" s="9">
         <v>45588</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="26">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F38" s="11"/>
     </row>
@@ -1505,14 +1514,14 @@
       <c r="B39" s="9">
         <v>45588</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="26">
         <v>6.9444444444444448E-2</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" s="11"/>
     </row>
@@ -1524,14 +1533,14 @@
       <c r="B40" s="9">
         <v>45588</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="26">
         <v>6.25E-2</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F40" s="11"/>
     </row>
@@ -1543,14 +1552,14 @@
       <c r="B41" s="9">
         <v>45589</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="26">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" s="11"/>
     </row>
@@ -1562,14 +1571,14 @@
       <c r="B42" s="9">
         <v>45589</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="26">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F42" s="11"/>
     </row>
@@ -1581,14 +1590,14 @@
       <c r="B43" s="9">
         <v>45589</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="26">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="11"/>
     </row>
@@ -1600,14 +1609,14 @@
       <c r="B44" s="9">
         <v>45589</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F44" s="11"/>
     </row>
@@ -1619,37 +1628,55 @@
       <c r="B45" s="9">
         <v>45589</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="26">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="str">
+    <row r="46" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A46" s="14">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="9">
+        <v>45591</v>
+      </c>
+      <c r="C46" s="26">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="str">
+      <c r="A47" s="14">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45591</v>
+      </c>
+      <c r="C47" s="26">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1658,7 +1685,7 @@
         <v/>
       </c>
       <c r="B48" s="9"/>
-      <c r="C48" s="27"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -1669,7 +1696,7 @@
         <v/>
       </c>
       <c r="B49" s="9"/>
-      <c r="C49" s="27"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -1680,7 +1707,7 @@
         <v/>
       </c>
       <c r="B50" s="9"/>
-      <c r="C50" s="27"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -1691,7 +1718,7 @@
         <v/>
       </c>
       <c r="B51" s="9"/>
-      <c r="C51" s="27"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -1702,7 +1729,7 @@
         <v/>
       </c>
       <c r="B52" s="9"/>
-      <c r="C52" s="27"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -1713,7 +1740,7 @@
         <v/>
       </c>
       <c r="B53" s="9"/>
-      <c r="C53" s="27"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
@@ -1724,7 +1751,7 @@
         <v/>
       </c>
       <c r="B54" s="9"/>
-      <c r="C54" s="27"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -1735,7 +1762,7 @@
         <v/>
       </c>
       <c r="B55" s="9"/>
-      <c r="C55" s="27"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -1746,7 +1773,7 @@
         <v/>
       </c>
       <c r="B56" s="9"/>
-      <c r="C56" s="27"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -1757,7 +1784,7 @@
         <v/>
       </c>
       <c r="B57" s="9"/>
-      <c r="C57" s="27"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -1768,7 +1795,7 @@
         <v/>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="27"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -1779,7 +1806,7 @@
         <v/>
       </c>
       <c r="B59" s="9"/>
-      <c r="C59" s="27"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
@@ -1790,7 +1817,7 @@
         <v/>
       </c>
       <c r="B60" s="9"/>
-      <c r="C60" s="27"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
@@ -1801,7 +1828,7 @@
         <v/>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="27"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
@@ -1812,7 +1839,7 @@
         <v/>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="27"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
@@ -1823,7 +1850,7 @@
         <v/>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="27"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -1834,7 +1861,7 @@
         <v/>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="27"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
@@ -1845,7 +1872,7 @@
         <v/>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="27"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
@@ -1856,7 +1883,7 @@
         <v/>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="27"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
@@ -1867,7 +1894,7 @@
         <v/>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="27"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
@@ -1878,7 +1905,7 @@
         <v/>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="27"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -1889,7 +1916,7 @@
         <v/>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="27"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
@@ -1900,7 +1927,7 @@
         <v/>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="27"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -1911,7 +1938,7 @@
         <v/>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="27"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
@@ -1922,7 +1949,7 @@
         <v/>
       </c>
       <c r="B72" s="9"/>
-      <c r="C72" s="27"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -1933,7 +1960,7 @@
         <v/>
       </c>
       <c r="B73" s="9"/>
-      <c r="C73" s="27"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
@@ -1944,7 +1971,7 @@
         <v/>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="27"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
@@ -1955,7 +1982,7 @@
         <v/>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="27"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -1966,7 +1993,7 @@
         <v/>
       </c>
       <c r="B76" s="9"/>
-      <c r="C76" s="27"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
@@ -1977,7 +2004,7 @@
         <v/>
       </c>
       <c r="B77" s="9"/>
-      <c r="C77" s="27"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
@@ -1988,7 +2015,7 @@
         <v/>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="27"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
@@ -1999,7 +2026,7 @@
         <v/>
       </c>
       <c r="B79" s="9"/>
-      <c r="C79" s="27"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -2010,7 +2037,7 @@
         <v/>
       </c>
       <c r="B80" s="9"/>
-      <c r="C80" s="27"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
@@ -2021,7 +2048,7 @@
         <v/>
       </c>
       <c r="B81" s="9"/>
-      <c r="C81" s="27"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
@@ -2032,7 +2059,7 @@
         <v/>
       </c>
       <c r="B82" s="9"/>
-      <c r="C82" s="27"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -2043,7 +2070,7 @@
         <v/>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="27"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -2054,7 +2081,7 @@
         <v/>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="27"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -2065,7 +2092,7 @@
         <v/>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="27"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
@@ -2076,7 +2103,7 @@
         <v/>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="27"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -2087,7 +2114,7 @@
         <v/>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="27"/>
+      <c r="C87" s="26"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
@@ -2098,7 +2125,7 @@
         <v/>
       </c>
       <c r="B88" s="9"/>
-      <c r="C88" s="27"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -2109,7 +2136,7 @@
         <v/>
       </c>
       <c r="B89" s="9"/>
-      <c r="C89" s="27"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
@@ -2120,7 +2147,7 @@
         <v/>
       </c>
       <c r="B90" s="9"/>
-      <c r="C90" s="27"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
@@ -2131,7 +2158,7 @@
         <v/>
       </c>
       <c r="B91" s="9"/>
-      <c r="C91" s="27"/>
+      <c r="C91" s="26"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -2142,7 +2169,7 @@
         <v/>
       </c>
       <c r="B92" s="9"/>
-      <c r="C92" s="27"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
@@ -2153,7 +2180,7 @@
         <v/>
       </c>
       <c r="B93" s="9"/>
-      <c r="C93" s="27"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
@@ -2164,7 +2191,7 @@
         <v/>
       </c>
       <c r="B94" s="9"/>
-      <c r="C94" s="27"/>
+      <c r="C94" s="26"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
@@ -2175,7 +2202,7 @@
         <v/>
       </c>
       <c r="B95" s="9"/>
-      <c r="C95" s="27"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
@@ -2186,7 +2213,7 @@
         <v/>
       </c>
       <c r="B96" s="9"/>
-      <c r="C96" s="27"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
@@ -2197,7 +2224,7 @@
         <v/>
       </c>
       <c r="B97" s="9"/>
-      <c r="C97" s="27"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
@@ -2208,7 +2235,7 @@
         <v/>
       </c>
       <c r="B98" s="9"/>
-      <c r="C98" s="27"/>
+      <c r="C98" s="26"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
@@ -2219,7 +2246,7 @@
         <v/>
       </c>
       <c r="B99" s="9"/>
-      <c r="C99" s="27"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
@@ -2230,7 +2257,7 @@
         <v/>
       </c>
       <c r="B100" s="9"/>
-      <c r="C100" s="27"/>
+      <c r="C100" s="26"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
@@ -2241,7 +2268,7 @@
         <v/>
       </c>
       <c r="B101" s="9"/>
-      <c r="C101" s="27"/>
+      <c r="C101" s="26"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -2252,7 +2279,7 @@
         <v/>
       </c>
       <c r="B102" s="9"/>
-      <c r="C102" s="27"/>
+      <c r="C102" s="26"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
@@ -2263,7 +2290,7 @@
         <v/>
       </c>
       <c r="B103" s="9"/>
-      <c r="C103" s="27"/>
+      <c r="C103" s="26"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
@@ -2274,7 +2301,7 @@
         <v/>
       </c>
       <c r="B104" s="9"/>
-      <c r="C104" s="27"/>
+      <c r="C104" s="26"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
@@ -2285,7 +2312,7 @@
         <v/>
       </c>
       <c r="B105" s="9"/>
-      <c r="C105" s="27"/>
+      <c r="C105" s="26"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
@@ -2296,7 +2323,7 @@
         <v/>
       </c>
       <c r="B106" s="9"/>
-      <c r="C106" s="27"/>
+      <c r="C106" s="26"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
@@ -2307,7 +2334,7 @@
         <v/>
       </c>
       <c r="B107" s="9"/>
-      <c r="C107" s="27"/>
+      <c r="C107" s="26"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
@@ -2318,7 +2345,7 @@
         <v/>
       </c>
       <c r="B108" s="9"/>
-      <c r="C108" s="27"/>
+      <c r="C108" s="26"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
@@ -2329,7 +2356,7 @@
         <v/>
       </c>
       <c r="B109" s="9"/>
-      <c r="C109" s="27"/>
+      <c r="C109" s="26"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
@@ -2340,7 +2367,7 @@
         <v/>
       </c>
       <c r="B110" s="9"/>
-      <c r="C110" s="27"/>
+      <c r="C110" s="26"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
@@ -2351,7 +2378,7 @@
         <v/>
       </c>
       <c r="B111" s="9"/>
-      <c r="C111" s="27"/>
+      <c r="C111" s="26"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
@@ -2362,7 +2389,7 @@
         <v/>
       </c>
       <c r="B112" s="9"/>
-      <c r="C112" s="27"/>
+      <c r="C112" s="26"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -2373,7 +2400,7 @@
         <v/>
       </c>
       <c r="B113" s="9"/>
-      <c r="C113" s="27"/>
+      <c r="C113" s="26"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
@@ -2384,7 +2411,7 @@
         <v/>
       </c>
       <c r="B114" s="9"/>
-      <c r="C114" s="27"/>
+      <c r="C114" s="26"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
@@ -2395,7 +2422,7 @@
         <v/>
       </c>
       <c r="B115" s="9"/>
-      <c r="C115" s="27"/>
+      <c r="C115" s="26"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
@@ -2406,7 +2433,7 @@
         <v/>
       </c>
       <c r="B116" s="9"/>
-      <c r="C116" s="27"/>
+      <c r="C116" s="26"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
@@ -2417,7 +2444,7 @@
         <v/>
       </c>
       <c r="B117" s="9"/>
-      <c r="C117" s="27"/>
+      <c r="C117" s="26"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
@@ -2428,7 +2455,7 @@
         <v/>
       </c>
       <c r="B118" s="9"/>
-      <c r="C118" s="27"/>
+      <c r="C118" s="26"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
@@ -2439,7 +2466,7 @@
         <v/>
       </c>
       <c r="B119" s="9"/>
-      <c r="C119" s="27"/>
+      <c r="C119" s="26"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
@@ -2450,7 +2477,7 @@
         <v/>
       </c>
       <c r="B120" s="9"/>
-      <c r="C120" s="27"/>
+      <c r="C120" s="26"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
@@ -2461,7 +2488,7 @@
         <v/>
       </c>
       <c r="B121" s="9"/>
-      <c r="C121" s="27"/>
+      <c r="C121" s="26"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
@@ -2472,7 +2499,7 @@
         <v/>
       </c>
       <c r="B122" s="9"/>
-      <c r="C122" s="27"/>
+      <c r="C122" s="26"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
@@ -2483,7 +2510,7 @@
         <v/>
       </c>
       <c r="B123" s="9"/>
-      <c r="C123" s="27"/>
+      <c r="C123" s="26"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
@@ -2494,7 +2521,7 @@
         <v/>
       </c>
       <c r="B124" s="9"/>
-      <c r="C124" s="27"/>
+      <c r="C124" s="26"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
@@ -2505,7 +2532,7 @@
         <v/>
       </c>
       <c r="B125" s="9"/>
-      <c r="C125" s="27"/>
+      <c r="C125" s="26"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
@@ -2516,7 +2543,7 @@
         <v/>
       </c>
       <c r="B126" s="9"/>
-      <c r="C126" s="27"/>
+      <c r="C126" s="26"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
@@ -2527,7 +2554,7 @@
         <v/>
       </c>
       <c r="B127" s="9"/>
-      <c r="C127" s="27"/>
+      <c r="C127" s="26"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
@@ -2538,7 +2565,7 @@
         <v/>
       </c>
       <c r="B128" s="9"/>
-      <c r="C128" s="27"/>
+      <c r="C128" s="26"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
@@ -2549,7 +2576,7 @@
         <v/>
       </c>
       <c r="B129" s="9"/>
-      <c r="C129" s="27"/>
+      <c r="C129" s="26"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
@@ -2560,7 +2587,7 @@
         <v/>
       </c>
       <c r="B130" s="9"/>
-      <c r="C130" s="27"/>
+      <c r="C130" s="26"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
@@ -2571,7 +2598,7 @@
         <v/>
       </c>
       <c r="B131" s="9"/>
-      <c r="C131" s="27"/>
+      <c r="C131" s="26"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
@@ -2582,7 +2609,7 @@
         <v/>
       </c>
       <c r="B132" s="9"/>
-      <c r="C132" s="27"/>
+      <c r="C132" s="26"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
@@ -2593,7 +2620,7 @@
         <v/>
       </c>
       <c r="B133" s="9"/>
-      <c r="C133" s="27"/>
+      <c r="C133" s="26"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
@@ -2604,7 +2631,7 @@
         <v/>
       </c>
       <c r="B134" s="9"/>
-      <c r="C134" s="27"/>
+      <c r="C134" s="26"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
@@ -2615,7 +2642,7 @@
         <v/>
       </c>
       <c r="B135" s="9"/>
-      <c r="C135" s="27"/>
+      <c r="C135" s="26"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
@@ -2626,7 +2653,7 @@
         <v/>
       </c>
       <c r="B136" s="9"/>
-      <c r="C136" s="27"/>
+      <c r="C136" s="26"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
@@ -2637,7 +2664,7 @@
         <v/>
       </c>
       <c r="B137" s="9"/>
-      <c r="C137" s="27"/>
+      <c r="C137" s="26"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
@@ -2648,7 +2675,7 @@
         <v/>
       </c>
       <c r="B138" s="9"/>
-      <c r="C138" s="27"/>
+      <c r="C138" s="26"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
@@ -2659,7 +2686,7 @@
         <v/>
       </c>
       <c r="B139" s="9"/>
-      <c r="C139" s="27"/>
+      <c r="C139" s="26"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
@@ -2670,7 +2697,7 @@
         <v/>
       </c>
       <c r="B140" s="9"/>
-      <c r="C140" s="27"/>
+      <c r="C140" s="26"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
@@ -2681,7 +2708,7 @@
         <v/>
       </c>
       <c r="B141" s="9"/>
-      <c r="C141" s="27"/>
+      <c r="C141" s="26"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
@@ -2692,7 +2719,7 @@
         <v/>
       </c>
       <c r="B142" s="9"/>
-      <c r="C142" s="27"/>
+      <c r="C142" s="26"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
@@ -2703,7 +2730,7 @@
         <v/>
       </c>
       <c r="B143" s="9"/>
-      <c r="C143" s="27"/>
+      <c r="C143" s="26"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
@@ -2714,7 +2741,7 @@
         <v/>
       </c>
       <c r="B144" s="9"/>
-      <c r="C144" s="27"/>
+      <c r="C144" s="26"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
@@ -2725,7 +2752,7 @@
         <v/>
       </c>
       <c r="B145" s="9"/>
-      <c r="C145" s="27"/>
+      <c r="C145" s="26"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
@@ -2736,7 +2763,7 @@
         <v/>
       </c>
       <c r="B146" s="9"/>
-      <c r="C146" s="27"/>
+      <c r="C146" s="26"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
@@ -7038,15 +7065,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7269,6 +7287,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
@@ -7281,14 +7308,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7305,4 +7324,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/documentation/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\plot-that-lines\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5208CC5-861B-40E4-9EBA-27BB43C301DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F0A5E-B98B-4311-AE3B-856540F317AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>J'avance dans le rapport à fournir. Il ne reste plue que le IceScrub.</t>
+  </si>
+  <si>
+    <t>Je gère les erreurs potentiels puis je rajoute la fonctionnalité de trier les données grâce à la méthode anciennement créé.</t>
+  </si>
+  <si>
+    <t>Je réduis mon nombre d'appel à l'API</t>
+  </si>
+  <si>
+    <t>Rajouter les légendes au graphique</t>
+  </si>
+  <si>
+    <t>Je mets mon rapport à jour par rapport à ce que j'ai rajouté. Puis je rajoute les IceTools.</t>
   </si>
 </sst>
 </file>
@@ -753,9 +765,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -823,7 +835,7 @@
       </c>
       <c r="C3" s="27">
         <f>SUM(C6:C521)</f>
-        <v>1.2152777777777775</v>
+        <v>1.3611111111111107</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -1679,48 +1691,80 @@
       </c>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="str">
+    <row r="48" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A48" s="14">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="9">
+        <v>45595</v>
+      </c>
+      <c r="C48" s="26">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="14" t="str">
+      <c r="A49" s="14">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="B49" s="9">
+        <v>45595</v>
+      </c>
+      <c r="C49" s="26">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="str">
+      <c r="A50" s="14">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="B50" s="9">
+        <v>45595</v>
+      </c>
+      <c r="C50" s="26">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="str">
+      <c r="A51" s="14">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="B51" s="9">
+        <v>45595</v>
+      </c>
+      <c r="C51" s="26">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -7065,6 +7109,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7287,15 +7340,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
@@ -7308,6 +7352,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7324,12 +7376,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>